--- a/Code/Results/Cases/Case_2_5/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_5/res_line/loading_percent.xlsx
@@ -459,16 +459,16 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>11.9026641950216</v>
+        <v>11.90266419502159</v>
       </c>
       <c r="F3">
         <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>19.76174527334974</v>
+        <v>19.76174527334969</v>
       </c>
       <c r="H3">
-        <v>15.56139586455856</v>
+        <v>15.5613958645585</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>15.29391246017203</v>
+        <v>15.29391246017201</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,25 +488,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.49754853653453</v>
+        <v>22.49754853653463</v>
       </c>
       <c r="C4">
-        <v>16.01951721699239</v>
+        <v>16.01951721699243</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>11.29018671603643</v>
+        <v>11.29018671603644</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>19.25675189161403</v>
+        <v>19.25675189161393</v>
       </c>
       <c r="H4">
-        <v>15.4418671230942</v>
+        <v>15.44186712309403</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -526,25 +526,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.0157002492878</v>
+        <v>22.01570024928787</v>
       </c>
       <c r="C5">
-        <v>15.67862116751671</v>
+        <v>15.67862116751672</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11.03384641859904</v>
+        <v>11.03384641859902</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>26.21694803853472</v>
       </c>
       <c r="G5">
-        <v>19.05797352704377</v>
+        <v>19.0579735270437</v>
       </c>
       <c r="H5">
-        <v>15.40188029124801</v>
+        <v>15.40188029124789</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>14.21241947990249</v>
+        <v>14.21241947990252</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,10 +564,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.93480800395713</v>
+        <v>21.93480800395724</v>
       </c>
       <c r="C6">
-        <v>15.62142300430948</v>
+        <v>15.62142300430937</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -576,13 +576,13 @@
         <v>10.99634228312684</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>26.12018204701068</v>
       </c>
       <c r="G6">
-        <v>19.02538878363722</v>
+        <v>19.02538878363715</v>
       </c>
       <c r="H6">
-        <v>15.39574988967413</v>
+        <v>15.39574988967398</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -591,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>14.15886545795316</v>
+        <v>14.1588654579531</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,10 +602,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.49110912784443</v>
+        <v>22.49110912784447</v>
       </c>
       <c r="C7">
-        <v>16.01495939483279</v>
+        <v>16.01495939483309</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -614,13 +614,13 @@
         <v>11.28675717696833</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>26.78544435617551</v>
       </c>
       <c r="G7">
-        <v>19.25404276266054</v>
+        <v>19.25404276266046</v>
       </c>
       <c r="H7">
-        <v>15.4412933149196</v>
+        <v>15.44129331491952</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>14.52746179541714</v>
+        <v>14.52746179541719</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.81938071056605</v>
+        <v>24.81938071056608</v>
       </c>
       <c r="C8">
-        <v>17.66663538587396</v>
+        <v>17.66663538587391</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>12.53365096009475</v>
+        <v>12.53365096009473</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>20.32468845677544</v>
+        <v>20.32468845677549</v>
       </c>
       <c r="H8">
         <v>15.72039884778696</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>16.07800499718358</v>
+        <v>16.07800499718354</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -681,22 +681,22 @@
         <v>28.94715017872315</v>
       </c>
       <c r="C9">
-        <v>20.61380363171548</v>
+        <v>20.61380363171543</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>14.78021540314247</v>
+        <v>14.78021540314252</v>
       </c>
       <c r="F9">
-        <v>34.45877994148617</v>
+        <v>34.45877994148619</v>
       </c>
       <c r="G9">
-        <v>22.64928186962858</v>
+        <v>22.64928186962856</v>
       </c>
       <c r="H9">
-        <v>16.58568800990631</v>
+        <v>16.58568800990627</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>18.86038673719313</v>
+        <v>18.86038673719314</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,25 +716,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.7309295712116</v>
+        <v>31.73092957121153</v>
       </c>
       <c r="C10">
-        <v>22.61604409408253</v>
+        <v>22.61604409408244</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>16.3236826305729</v>
+        <v>16.32368263057288</v>
       </c>
       <c r="F10">
-        <v>37.72874519847221</v>
+        <v>37.72874519847222</v>
       </c>
       <c r="G10">
-        <v>24.61479036780021</v>
+        <v>24.61479036780011</v>
       </c>
       <c r="H10">
-        <v>17.446917827724</v>
+        <v>17.44691782772401</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>20.76343146363855</v>
+        <v>20.76343146363849</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,25 +754,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.94793176087832</v>
+        <v>32.9479317608785</v>
       </c>
       <c r="C11">
-        <v>23.49539985292745</v>
+        <v>23.49539985292751</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>17.00626390741652</v>
+        <v>17.00626390741653</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>39.14805722232859</v>
       </c>
       <c r="G11">
-        <v>25.70761046325909</v>
+        <v>25.70761046325933</v>
       </c>
       <c r="H11">
-        <v>17.89419083792253</v>
+        <v>17.89419083792258</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>21.60276659681134</v>
+        <v>21.60276659681137</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,25 +792,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.40212810686562</v>
+        <v>33.40212810686548</v>
       </c>
       <c r="C12">
-        <v>23.82424386276687</v>
+        <v>23.82424386276682</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>17.26228918060023</v>
+        <v>17.26228918060021</v>
       </c>
       <c r="F12">
-        <v>39.67592721363785</v>
+        <v>39.67592721363781</v>
       </c>
       <c r="G12">
-        <v>26.12271522980421</v>
+        <v>26.12271522980405</v>
       </c>
       <c r="H12">
-        <v>18.07208978980633</v>
+        <v>18.07208978980631</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>21.91722483896494</v>
+        <v>21.91722483896487</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,25 +830,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.30459712133075</v>
+        <v>33.3045971213307</v>
       </c>
       <c r="C13">
-        <v>23.7535993174572</v>
+        <v>23.75359931745713</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>17.20725237214936</v>
+        <v>17.20725237214943</v>
       </c>
       <c r="F13">
         <v>39.5626640325822</v>
       </c>
       <c r="G13">
-        <v>26.03324831670001</v>
+        <v>26.03324831669999</v>
       </c>
       <c r="H13">
-        <v>18.03338774285102</v>
+        <v>18.03338774285108</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>21.84964369525802</v>
+        <v>21.84964369525805</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,25 +868,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.98542941259918</v>
+        <v>32.98542941259917</v>
       </c>
       <c r="C14">
-        <v>23.52253483208674</v>
+        <v>23.52253483208667</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>17.02737418194754</v>
+        <v>17.02737418194758</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>25.74173228217505</v>
+        <v>25.74173228217508</v>
       </c>
       <c r="H14">
-        <v>17.90865254810387</v>
+        <v>17.90865254810396</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>21.62870241300783</v>
+        <v>21.62870241300784</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.78907732623375</v>
+        <v>32.78907732623366</v>
       </c>
       <c r="C15">
-        <v>23.38047302061442</v>
+        <v>23.38047302061436</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>16.91688565474178</v>
+        <v>16.91688565474174</v>
       </c>
       <c r="F15">
-        <v>38.96319309154516</v>
+        <v>38.96319309154517</v>
       </c>
       <c r="G15">
-        <v>25.56335454176975</v>
+        <v>25.56335454176969</v>
       </c>
       <c r="H15">
         <v>17.83337585525969</v>
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>21.49294266530454</v>
+        <v>21.49294266530455</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.65043881515805</v>
+        <v>31.65043881515806</v>
       </c>
       <c r="C16">
-        <v>22.55797374419999</v>
+        <v>22.55797374420004</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>16.27871030216772</v>
+        <v>16.27871030216768</v>
       </c>
       <c r="F16">
         <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>24.54351942737196</v>
+        <v>24.54351942737185</v>
       </c>
       <c r="H16">
-        <v>17.41885014519842</v>
+        <v>17.41885014519831</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>20.70808215059323</v>
+        <v>20.70808215059324</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,25 +982,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.93957548183507</v>
+        <v>30.93957548183511</v>
       </c>
       <c r="C17">
-        <v>22.04558687613384</v>
+        <v>22.04558687613386</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>15.88244116038649</v>
+        <v>15.88244116038653</v>
       </c>
       <c r="F17">
-        <v>36.80228778268389</v>
+        <v>36.80228778268393</v>
       </c>
       <c r="G17">
-        <v>23.95285819309828</v>
+        <v>23.95285819309825</v>
       </c>
       <c r="H17">
-        <v>17.17914511954858</v>
+        <v>17.17914511954857</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>20.22011612624583</v>
+        <v>20.22011612624584</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,25 +1020,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.52603068137591</v>
+        <v>30.52603068137589</v>
       </c>
       <c r="C18">
-        <v>21.74788747367567</v>
+        <v>21.74788747367562</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>15.65265318610346</v>
+        <v>15.65265318610349</v>
       </c>
       <c r="F18">
-        <v>36.31710943239624</v>
+        <v>36.31710943239623</v>
       </c>
       <c r="G18">
-        <v>23.67303536974895</v>
+        <v>23.67303536974891</v>
       </c>
       <c r="H18">
-        <v>17.04646297229225</v>
+        <v>17.04646297229222</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>19.93694097533785</v>
+        <v>19.93694097533786</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,25 +1058,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.38519611911016</v>
+        <v>30.38519611911021</v>
       </c>
       <c r="C19">
-        <v>21.64656778851242</v>
+        <v>21.64656778851234</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>15.57452067088265</v>
+        <v>15.57452067088271</v>
       </c>
       <c r="F19">
-        <v>36.1517249415006</v>
+        <v>36.15172494150063</v>
       </c>
       <c r="G19">
-        <v>23.57883402698141</v>
+        <v>23.57883402698139</v>
       </c>
       <c r="H19">
-        <v>17.00241428732469</v>
+        <v>17.00241428732467</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>19.84062006617902</v>
+        <v>19.84062006617905</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,25 +1096,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.01572894292559</v>
+        <v>31.01572894292558</v>
       </c>
       <c r="C20">
-        <v>22.10043803076962</v>
+        <v>22.10043803076946</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>15.92481523055808</v>
+        <v>15.92481523055815</v>
       </c>
       <c r="F20">
-        <v>36.89155697731401</v>
+        <v>36.891556977314</v>
       </c>
       <c r="G20">
-        <v>24.00490672899047</v>
+        <v>24.00490672899052</v>
       </c>
       <c r="H20">
-        <v>17.20412114807906</v>
+        <v>17.20412114807913</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>20.27231792826045</v>
+        <v>20.27231792826047</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,25 +1134,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.0793535187189</v>
+        <v>33.07935351871895</v>
       </c>
       <c r="C21">
-        <v>23.59051338041336</v>
+        <v>23.59051338041339</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>17.08027222205659</v>
+        <v>17.08027222205662</v>
       </c>
       <c r="F21">
         <v>39.30090300329766</v>
       </c>
       <c r="G21">
-        <v>25.82731806950006</v>
+        <v>25.82731806950019</v>
       </c>
       <c r="H21">
-        <v>17.94505435554628</v>
+        <v>17.9450543555463</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>21.69368634736458</v>
+        <v>21.69368634736459</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,25 +1172,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.38950819002687</v>
+        <v>34.38950819002679</v>
       </c>
       <c r="C22">
-        <v>24.54039987917476</v>
+        <v>24.54039987917472</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>17.82133852124723</v>
+        <v>17.82133852124716</v>
       </c>
       <c r="F22">
-        <v>40.81974568026788</v>
+        <v>40.81974568026791</v>
       </c>
       <c r="G22">
-        <v>27.03857227469185</v>
+        <v>27.03857227469167</v>
       </c>
       <c r="H22">
-        <v>18.52552498093477</v>
+        <v>18.52552498093458</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>22.60317293690622</v>
+        <v>22.60317293690618</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,25 +1210,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.69361785127972</v>
+        <v>33.69361785127955</v>
       </c>
       <c r="C23">
-        <v>24.03547993861572</v>
+        <v>24.0354799386156</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>17.42697339920232</v>
+        <v>17.42697339920233</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>40.01414225038425</v>
       </c>
       <c r="G23">
-        <v>26.39117728630062</v>
+        <v>26.39117728630045</v>
       </c>
       <c r="H23">
-        <v>18.18938932578012</v>
+        <v>18.18938932578015</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>22.11938988723632</v>
+        <v>22.11938988723629</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,25 +1248,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.98131513339095</v>
+        <v>30.981315133391</v>
       </c>
       <c r="C24">
-        <v>22.07564957372674</v>
+        <v>22.07564957372672</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>15.90566406811975</v>
+        <v>15.90566406811972</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>36.85121910575439</v>
       </c>
       <c r="G24">
-        <v>23.98136600837021</v>
+        <v>23.98136600837019</v>
       </c>
       <c r="H24">
-        <v>17.19281355535714</v>
+        <v>17.19281355535713</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>20.24872573733796</v>
+        <v>20.24872573733797</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,25 +1286,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.87561335379696</v>
+        <v>27.8756133537969</v>
       </c>
       <c r="C25">
-        <v>19.84633226979611</v>
+        <v>19.84633226979601</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>14.19238104611565</v>
+        <v>14.19238104611567</v>
       </c>
       <c r="F25">
         <v>33.19272459126715</v>
       </c>
       <c r="G25">
-        <v>21.99579456650649</v>
+        <v>21.99579456650645</v>
       </c>
       <c r="H25">
-        <v>16.31421537271555</v>
+        <v>16.31421537271554</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>18.13376329864123</v>
+        <v>18.13376329864117</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_5/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_5/res_line/loading_percent.xlsx
@@ -459,16 +459,16 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>11.90266419502159</v>
+        <v>11.9026641950216</v>
       </c>
       <c r="F3">
         <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>19.76174527334969</v>
+        <v>19.76174527334974</v>
       </c>
       <c r="H3">
-        <v>15.5613958645585</v>
+        <v>15.56139586455856</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>15.29391246017201</v>
+        <v>15.29391246017203</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,25 +488,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.49754853653463</v>
+        <v>22.49754853653453</v>
       </c>
       <c r="C4">
-        <v>16.01951721699243</v>
+        <v>16.01951721699239</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>11.29018671603644</v>
+        <v>11.29018671603643</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>19.25675189161393</v>
+        <v>19.25675189161403</v>
       </c>
       <c r="H4">
-        <v>15.44186712309403</v>
+        <v>15.4418671230942</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -526,25 +526,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.01570024928787</v>
+        <v>22.0157002492878</v>
       </c>
       <c r="C5">
-        <v>15.67862116751672</v>
+        <v>15.67862116751671</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11.03384641859902</v>
+        <v>11.03384641859904</v>
       </c>
       <c r="F5">
-        <v>26.21694803853472</v>
+        <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>19.0579735270437</v>
+        <v>19.05797352704377</v>
       </c>
       <c r="H5">
-        <v>15.40188029124789</v>
+        <v>15.40188029124801</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>14.21241947990252</v>
+        <v>14.21241947990249</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,10 +564,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.93480800395724</v>
+        <v>21.93480800395713</v>
       </c>
       <c r="C6">
-        <v>15.62142300430937</v>
+        <v>15.62142300430948</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -576,13 +576,13 @@
         <v>10.99634228312684</v>
       </c>
       <c r="F6">
-        <v>26.12018204701068</v>
+        <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>19.02538878363715</v>
+        <v>19.02538878363722</v>
       </c>
       <c r="H6">
-        <v>15.39574988967398</v>
+        <v>15.39574988967413</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -591,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>14.1588654579531</v>
+        <v>14.15886545795316</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,10 +602,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.49110912784447</v>
+        <v>22.49110912784443</v>
       </c>
       <c r="C7">
-        <v>16.01495939483309</v>
+        <v>16.01495939483279</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -614,13 +614,13 @@
         <v>11.28675717696833</v>
       </c>
       <c r="F7">
-        <v>26.78544435617551</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>19.25404276266046</v>
+        <v>19.25404276266054</v>
       </c>
       <c r="H7">
-        <v>15.44129331491952</v>
+        <v>15.4412933149196</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>14.52746179541719</v>
+        <v>14.52746179541714</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.81938071056608</v>
+        <v>24.81938071056605</v>
       </c>
       <c r="C8">
-        <v>17.66663538587391</v>
+        <v>17.66663538587396</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>12.53365096009473</v>
+        <v>12.53365096009475</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>20.32468845677549</v>
+        <v>20.32468845677544</v>
       </c>
       <c r="H8">
         <v>15.72039884778696</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>16.07800499718354</v>
+        <v>16.07800499718358</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -681,22 +681,22 @@
         <v>28.94715017872315</v>
       </c>
       <c r="C9">
-        <v>20.61380363171543</v>
+        <v>20.61380363171548</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>14.78021540314252</v>
+        <v>14.78021540314247</v>
       </c>
       <c r="F9">
-        <v>34.45877994148619</v>
+        <v>34.45877994148617</v>
       </c>
       <c r="G9">
-        <v>22.64928186962856</v>
+        <v>22.64928186962858</v>
       </c>
       <c r="H9">
-        <v>16.58568800990627</v>
+        <v>16.58568800990631</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>18.86038673719314</v>
+        <v>18.86038673719313</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,25 +716,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.73092957121153</v>
+        <v>31.7309295712116</v>
       </c>
       <c r="C10">
-        <v>22.61604409408244</v>
+        <v>22.61604409408253</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>16.32368263057288</v>
+        <v>16.3236826305729</v>
       </c>
       <c r="F10">
-        <v>37.72874519847222</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>24.61479036780011</v>
+        <v>24.61479036780021</v>
       </c>
       <c r="H10">
-        <v>17.44691782772401</v>
+        <v>17.446917827724</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>20.76343146363849</v>
+        <v>20.76343146363855</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,25 +754,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.9479317608785</v>
+        <v>32.94793176087832</v>
       </c>
       <c r="C11">
-        <v>23.49539985292751</v>
+        <v>23.49539985292745</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>17.00626390741653</v>
+        <v>17.00626390741652</v>
       </c>
       <c r="F11">
-        <v>39.14805722232859</v>
+        <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>25.70761046325933</v>
+        <v>25.70761046325909</v>
       </c>
       <c r="H11">
-        <v>17.89419083792258</v>
+        <v>17.89419083792253</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>21.60276659681137</v>
+        <v>21.60276659681134</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,25 +792,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.40212810686548</v>
+        <v>33.40212810686562</v>
       </c>
       <c r="C12">
-        <v>23.82424386276682</v>
+        <v>23.82424386276687</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>17.26228918060021</v>
+        <v>17.26228918060023</v>
       </c>
       <c r="F12">
-        <v>39.67592721363781</v>
+        <v>39.67592721363785</v>
       </c>
       <c r="G12">
-        <v>26.12271522980405</v>
+        <v>26.12271522980421</v>
       </c>
       <c r="H12">
-        <v>18.07208978980631</v>
+        <v>18.07208978980633</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>21.91722483896487</v>
+        <v>21.91722483896494</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,25 +830,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.3045971213307</v>
+        <v>33.30459712133075</v>
       </c>
       <c r="C13">
-        <v>23.75359931745713</v>
+        <v>23.7535993174572</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>17.20725237214943</v>
+        <v>17.20725237214936</v>
       </c>
       <c r="F13">
         <v>39.5626640325822</v>
       </c>
       <c r="G13">
-        <v>26.03324831669999</v>
+        <v>26.03324831670001</v>
       </c>
       <c r="H13">
-        <v>18.03338774285108</v>
+        <v>18.03338774285102</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>21.84964369525805</v>
+        <v>21.84964369525802</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,25 +868,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.98542941259917</v>
+        <v>32.98542941259918</v>
       </c>
       <c r="C14">
-        <v>23.52253483208667</v>
+        <v>23.52253483208674</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>17.02737418194758</v>
+        <v>17.02737418194754</v>
       </c>
       <c r="F14">
-        <v>39.19167637503946</v>
+        <v>39.19167637503948</v>
       </c>
       <c r="G14">
-        <v>25.74173228217508</v>
+        <v>25.74173228217505</v>
       </c>
       <c r="H14">
-        <v>17.90865254810396</v>
+        <v>17.90865254810387</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>21.62870241300784</v>
+        <v>21.62870241300783</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.78907732623366</v>
+        <v>32.78907732623375</v>
       </c>
       <c r="C15">
-        <v>23.38047302061436</v>
+        <v>23.38047302061442</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>16.91688565474174</v>
+        <v>16.91688565474178</v>
       </c>
       <c r="F15">
-        <v>38.96319309154517</v>
+        <v>38.96319309154516</v>
       </c>
       <c r="G15">
-        <v>25.56335454176969</v>
+        <v>25.56335454176975</v>
       </c>
       <c r="H15">
         <v>17.83337585525969</v>
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>21.49294266530455</v>
+        <v>21.49294266530454</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.65043881515806</v>
+        <v>31.65043881515805</v>
       </c>
       <c r="C16">
-        <v>22.55797374420004</v>
+        <v>22.55797374419999</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>16.27871030216768</v>
+        <v>16.27871030216772</v>
       </c>
       <c r="F16">
         <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>24.54351942737185</v>
+        <v>24.54351942737196</v>
       </c>
       <c r="H16">
-        <v>17.41885014519831</v>
+        <v>17.41885014519842</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>20.70808215059324</v>
+        <v>20.70808215059323</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,25 +982,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.93957548183511</v>
+        <v>30.93957548183507</v>
       </c>
       <c r="C17">
-        <v>22.04558687613386</v>
+        <v>22.04558687613384</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>15.88244116038653</v>
+        <v>15.88244116038649</v>
       </c>
       <c r="F17">
-        <v>36.80228778268393</v>
+        <v>36.80228778268389</v>
       </c>
       <c r="G17">
-        <v>23.95285819309825</v>
+        <v>23.95285819309828</v>
       </c>
       <c r="H17">
-        <v>17.17914511954857</v>
+        <v>17.17914511954858</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>20.22011612624584</v>
+        <v>20.22011612624583</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,25 +1020,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.52603068137589</v>
+        <v>30.52603068137591</v>
       </c>
       <c r="C18">
-        <v>21.74788747367562</v>
+        <v>21.74788747367567</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>15.65265318610349</v>
+        <v>15.65265318610346</v>
       </c>
       <c r="F18">
-        <v>36.31710943239623</v>
+        <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>23.67303536974891</v>
+        <v>23.67303536974895</v>
       </c>
       <c r="H18">
-        <v>17.04646297229222</v>
+        <v>17.04646297229225</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>19.93694097533786</v>
+        <v>19.93694097533785</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,25 +1058,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.38519611911021</v>
+        <v>30.38519611911016</v>
       </c>
       <c r="C19">
-        <v>21.64656778851234</v>
+        <v>21.64656778851242</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>15.57452067088271</v>
+        <v>15.57452067088265</v>
       </c>
       <c r="F19">
-        <v>36.15172494150063</v>
+        <v>36.1517249415006</v>
       </c>
       <c r="G19">
-        <v>23.57883402698139</v>
+        <v>23.57883402698141</v>
       </c>
       <c r="H19">
-        <v>17.00241428732467</v>
+        <v>17.00241428732469</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>19.84062006617905</v>
+        <v>19.84062006617902</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,25 +1096,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.01572894292558</v>
+        <v>31.01572894292559</v>
       </c>
       <c r="C20">
-        <v>22.10043803076946</v>
+        <v>22.10043803076962</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>15.92481523055815</v>
+        <v>15.92481523055808</v>
       </c>
       <c r="F20">
-        <v>36.891556977314</v>
+        <v>36.89155697731401</v>
       </c>
       <c r="G20">
-        <v>24.00490672899052</v>
+        <v>24.00490672899047</v>
       </c>
       <c r="H20">
-        <v>17.20412114807913</v>
+        <v>17.20412114807906</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>20.27231792826047</v>
+        <v>20.27231792826045</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,25 +1134,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.07935351871895</v>
+        <v>33.0793535187189</v>
       </c>
       <c r="C21">
-        <v>23.59051338041339</v>
+        <v>23.59051338041336</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>17.08027222205662</v>
+        <v>17.08027222205659</v>
       </c>
       <c r="F21">
         <v>39.30090300329766</v>
       </c>
       <c r="G21">
-        <v>25.82731806950019</v>
+        <v>25.82731806950006</v>
       </c>
       <c r="H21">
-        <v>17.9450543555463</v>
+        <v>17.94505435554628</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>21.69368634736459</v>
+        <v>21.69368634736458</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,25 +1172,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.38950819002679</v>
+        <v>34.38950819002687</v>
       </c>
       <c r="C22">
-        <v>24.54039987917472</v>
+        <v>24.54039987917476</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>17.82133852124716</v>
+        <v>17.82133852124723</v>
       </c>
       <c r="F22">
-        <v>40.81974568026791</v>
+        <v>40.81974568026788</v>
       </c>
       <c r="G22">
-        <v>27.03857227469167</v>
+        <v>27.03857227469185</v>
       </c>
       <c r="H22">
-        <v>18.52552498093458</v>
+        <v>18.52552498093477</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>22.60317293690618</v>
+        <v>22.60317293690622</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,25 +1210,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.69361785127955</v>
+        <v>33.69361785127972</v>
       </c>
       <c r="C23">
-        <v>24.0354799386156</v>
+        <v>24.03547993861572</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>17.42697339920233</v>
+        <v>17.42697339920232</v>
       </c>
       <c r="F23">
-        <v>40.01414225038425</v>
+        <v>40.01414225038419</v>
       </c>
       <c r="G23">
-        <v>26.39117728630045</v>
+        <v>26.39117728630062</v>
       </c>
       <c r="H23">
-        <v>18.18938932578015</v>
+        <v>18.18938932578012</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>22.11938988723629</v>
+        <v>22.11938988723632</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,25 +1248,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.981315133391</v>
+        <v>30.98131513339095</v>
       </c>
       <c r="C24">
-        <v>22.07564957372672</v>
+        <v>22.07564957372674</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>15.90566406811972</v>
+        <v>15.90566406811975</v>
       </c>
       <c r="F24">
-        <v>36.85121910575439</v>
+        <v>36.8512191057543</v>
       </c>
       <c r="G24">
-        <v>23.98136600837019</v>
+        <v>23.98136600837021</v>
       </c>
       <c r="H24">
-        <v>17.19281355535713</v>
+        <v>17.19281355535714</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>20.24872573733797</v>
+        <v>20.24872573733796</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,25 +1286,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.8756133537969</v>
+        <v>27.87561335379696</v>
       </c>
       <c r="C25">
-        <v>19.84633226979601</v>
+        <v>19.84633226979611</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>14.19238104611567</v>
+        <v>14.19238104611565</v>
       </c>
       <c r="F25">
         <v>33.19272459126715</v>
       </c>
       <c r="G25">
-        <v>21.99579456650645</v>
+        <v>21.99579456650649</v>
       </c>
       <c r="H25">
-        <v>16.31421537271554</v>
+        <v>16.31421537271555</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>18.13376329864117</v>
+        <v>18.13376329864123</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_5/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_5/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.41997917477296</v>
+        <v>25.41919377271934</v>
       </c>
       <c r="C2">
-        <v>18.09392375231899</v>
+        <v>18.08816618814905</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>12.85759606469812</v>
+        <v>12.85846054664212</v>
       </c>
       <c r="F2">
         <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>20.62985399868265</v>
+        <v>19.70515075045391</v>
       </c>
       <c r="H2">
-        <v>15.81631166715263</v>
+        <v>20.65302781076809</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>15.7962066055893</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>16.48011096264783</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>16.47882881476775</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.64442108966418</v>
+        <v>23.64390552811445</v>
       </c>
       <c r="C3">
-        <v>16.8321829083134</v>
+        <v>16.82704777163212</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>11.9026641950216</v>
+        <v>11.90351197028062</v>
       </c>
       <c r="F3">
         <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>19.76174527334974</v>
+        <v>18.53821762291948</v>
       </c>
       <c r="H3">
-        <v>15.56139586455856</v>
+        <v>19.78433906751</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>15.54307891113592</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>15.29391246017203</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>15.29281883189608</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.49754853653453</v>
+        <v>22.49719147802999</v>
       </c>
       <c r="C4">
-        <v>16.01951721699239</v>
+        <v>16.01477170258642</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>11.29018671603643</v>
+        <v>11.29101814502671</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>19.25675189161403</v>
+        <v>17.83306291374111</v>
       </c>
       <c r="H4">
-        <v>15.4418671230942</v>
+        <v>19.27909089668724</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>15.42466681142017</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>14.53173260055543</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>14.53075061049862</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.0157002492878</v>
+        <v>22.01540635026571</v>
       </c>
       <c r="C5">
-        <v>15.67862116751671</v>
+        <v>15.67403677870724</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11.03384641859904</v>
+        <v>11.03466982410359</v>
       </c>
       <c r="F5">
         <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>19.05797352704377</v>
+        <v>17.54876402724143</v>
       </c>
       <c r="H5">
-        <v>15.40188029124801</v>
+        <v>19.08023400756352</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>15.38513831721916</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>14.21241947990249</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>14.21148220965155</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.93480800395713</v>
+        <v>21.93452451630235</v>
       </c>
       <c r="C6">
-        <v>15.62142300430948</v>
+        <v>15.61686552595586</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10.99634228312684</v>
+        <v>10.99719503977951</v>
       </c>
       <c r="F6">
         <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>19.02538878363722</v>
+        <v>17.50174845201896</v>
       </c>
       <c r="H6">
-        <v>15.39574988967413</v>
+        <v>19.04763774316563</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>15.37908418117748</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>14.15886545795316</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>14.15793557369975</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.49110912784443</v>
+        <v>22.49075292645995</v>
       </c>
       <c r="C7">
-        <v>16.01495939483279</v>
+        <v>16.01021604328395</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11.28675717696833</v>
+        <v>11.28758850305872</v>
       </c>
       <c r="F7">
         <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>19.25404276266054</v>
+        <v>17.82921605624701</v>
       </c>
       <c r="H7">
-        <v>15.4412933149196</v>
+        <v>19.27638060669692</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>15.42409917302912</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>14.52746179541714</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>14.52648041127808</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.81938071056605</v>
+        <v>24.8186900768683</v>
       </c>
       <c r="C8">
-        <v>17.66663538587396</v>
+        <v>17.66109118351831</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>12.53365096009475</v>
+        <v>12.53451105378133</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>20.32468845677544</v>
+        <v>19.30053474272784</v>
       </c>
       <c r="H8">
-        <v>15.72039884778696</v>
+        <v>20.3476412140508</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>15.70090558059635</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>16.07800499718358</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>16.0767888721287</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.94715017872315</v>
+        <v>28.94572750032225</v>
       </c>
       <c r="C9">
-        <v>20.61380363171548</v>
+        <v>20.60672493344467</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>14.78021540314247</v>
+        <v>14.78107458432675</v>
       </c>
       <c r="F9">
         <v>34.45877994148617</v>
       </c>
       <c r="G9">
-        <v>22.64928186962858</v>
+        <v>22.27155857094003</v>
       </c>
       <c r="H9">
-        <v>16.58568800990631</v>
+        <v>22.67424062701597</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>16.56189571900007</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>18.86038673719313</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>18.85866382164838</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.7309295712116</v>
+        <v>31.7288907596061</v>
       </c>
       <c r="C10">
-        <v>22.61604409408253</v>
+        <v>22.60782363104015</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>16.3236826305729</v>
+        <v>16.32449060937185</v>
       </c>
       <c r="F10">
         <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>24.61479036780021</v>
+        <v>24.64284681332155</v>
       </c>
       <c r="H10">
-        <v>17.446917827724</v>
+        <v>24.5284394838964</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>17.42016372222016</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>20.76343146363855</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>20.76128438006236</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.94793176087832</v>
+        <v>32.94558662111488</v>
       </c>
       <c r="C11">
-        <v>23.49539985292745</v>
+        <v>23.48664704711899</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>17.00626390741652</v>
+        <v>17.0070329418837</v>
       </c>
       <c r="F11">
         <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>25.70761046325909</v>
+        <v>25.73697921604773</v>
       </c>
       <c r="H11">
-        <v>17.89419083792253</v>
+        <v>25.54183522018624</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>17.86613995797286</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>21.60276659681134</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>21.60040841426189</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.40212810686562</v>
+        <v>33.39966226512984</v>
       </c>
       <c r="C12">
-        <v>23.82424386276687</v>
+        <v>23.81528659856261</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>17.26228918060023</v>
+        <v>17.2630406979791</v>
       </c>
       <c r="F12">
         <v>39.67592721363785</v>
       </c>
       <c r="G12">
-        <v>26.12271522980421</v>
+        <v>26.15258573348436</v>
       </c>
       <c r="H12">
-        <v>18.07208978980633</v>
+        <v>25.93553387663146</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>18.04355511720466</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>21.91722483896494</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>21.91478336322873</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.30459712133075</v>
+        <v>33.30215750156864</v>
       </c>
       <c r="C13">
-        <v>23.7535993174572</v>
+        <v>23.74468623304313</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>17.20725237214936</v>
+        <v>17.20800779504177</v>
       </c>
       <c r="F13">
         <v>39.5626640325822</v>
       </c>
       <c r="G13">
-        <v>26.03324831670001</v>
+        <v>26.06301055629089</v>
       </c>
       <c r="H13">
-        <v>18.03338774285102</v>
+        <v>25.85061969233691</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>18.00495694699489</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>21.84964369525802</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>21.84722032119817</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.98542941259918</v>
+        <v>32.98307444308201</v>
       </c>
       <c r="C14">
-        <v>23.52253483208674</v>
+        <v>23.51376526943157</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>17.02737418194754</v>
+        <v>17.02814183423202</v>
       </c>
       <c r="F14">
         <v>39.19167637503948</v>
       </c>
       <c r="G14">
-        <v>25.74173228217505</v>
+        <v>25.77114222184303</v>
       </c>
       <c r="H14">
-        <v>17.90865254810387</v>
+        <v>25.5741699548417</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>17.88056172276934</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>21.62870241300783</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>21.6263374500156</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.78907732623375</v>
+        <v>32.78677356311958</v>
       </c>
       <c r="C15">
-        <v>23.38047302061442</v>
+        <v>23.37179096176541</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>16.91688565474178</v>
+        <v>16.91766041952408</v>
       </c>
       <c r="F15">
         <v>38.96319309154516</v>
       </c>
       <c r="G15">
-        <v>25.56335454176975</v>
+        <v>25.59254929352689</v>
       </c>
       <c r="H15">
-        <v>17.83337585525969</v>
+        <v>25.40519015546685</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>17.80549420773908</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>21.49294266530454</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>21.4906130187704</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.65043881515805</v>
+        <v>31.64841942149891</v>
       </c>
       <c r="C16">
-        <v>22.55797374419999</v>
+        <v>22.54978772857938</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>16.27871030216772</v>
+        <v>16.27952046964097</v>
       </c>
       <c r="F16">
         <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>24.54351942737196</v>
+        <v>24.57149082076598</v>
       </c>
       <c r="H16">
-        <v>17.41885014519842</v>
+        <v>24.47178368691639</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>17.39218181763572</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>20.70808215059323</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>20.70594843787482</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.93957548183507</v>
+        <v>30.93772324944253</v>
       </c>
       <c r="C17">
-        <v>22.04558687613384</v>
+        <v>22.03770119177216</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>15.88244116038649</v>
+        <v>15.88326870695126</v>
       </c>
       <c r="F17">
         <v>36.80228778268389</v>
       </c>
       <c r="G17">
-        <v>23.95285819309828</v>
+        <v>23.94679527561499</v>
       </c>
       <c r="H17">
-        <v>17.17914511954858</v>
+        <v>23.97916407841146</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>17.15323425671906</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>20.22011612624583</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>20.21809748713133</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.52603068137591</v>
+        <v>30.52427221190374</v>
       </c>
       <c r="C18">
-        <v>21.74788747367567</v>
+        <v>21.740173383696</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>15.65265318610346</v>
+        <v>15.6534892930172</v>
       </c>
       <c r="F18">
         <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>23.67303536974895</v>
+        <v>23.58795416239934</v>
       </c>
       <c r="H18">
-        <v>17.04646297229225</v>
+        <v>23.6990431314607</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>17.02099257654764</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>19.93694097533785</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>19.93498686927075</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.38519611911016</v>
+        <v>30.38346901267197</v>
       </c>
       <c r="C19">
-        <v>21.64656778851242</v>
+        <v>21.63891162789211</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>15.57452067088265</v>
+        <v>15.57535944340014</v>
       </c>
       <c r="F19">
         <v>36.1517249415006</v>
       </c>
       <c r="G19">
-        <v>23.57883402698141</v>
+        <v>23.46652409826973</v>
       </c>
       <c r="H19">
-        <v>17.00241428732469</v>
+        <v>23.6047424174441</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>16.97709384002696</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>19.84062006617902</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>19.8386875457896</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.01572894292559</v>
+        <v>31.01385916893584</v>
       </c>
       <c r="C20">
-        <v>22.10043803076962</v>
+        <v>22.09252050116077</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>15.92481523055808</v>
+        <v>15.92564107902648</v>
       </c>
       <c r="F20">
         <v>36.89155697731401</v>
       </c>
       <c r="G20">
-        <v>24.00490672899047</v>
+        <v>24.01324365712436</v>
       </c>
       <c r="H20">
-        <v>17.20412114807906</v>
+        <v>24.03126853055961</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>17.17812915388177</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>20.27231792826045</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>20.27028721543256</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.0793535187189</v>
+        <v>33.07697382166139</v>
       </c>
       <c r="C21">
-        <v>23.59051338041336</v>
+        <v>23.58170174894338</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>17.08027222205659</v>
+        <v>17.08103636224241</v>
       </c>
       <c r="F21">
         <v>39.30090300329766</v>
       </c>
       <c r="G21">
-        <v>25.82731806950006</v>
+        <v>25.85683136312949</v>
       </c>
       <c r="H21">
-        <v>17.94505435554628</v>
+        <v>25.65529522404814</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>17.91686347843032</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>21.69368634736458</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>21.6913043254976</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.38950819002687</v>
+        <v>34.38676721313086</v>
       </c>
       <c r="C22">
-        <v>24.54039987917476</v>
+        <v>24.53098653348195</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>17.82133852124723</v>
+        <v>17.82204584199</v>
       </c>
       <c r="F22">
         <v>40.81974568026788</v>
       </c>
       <c r="G22">
-        <v>27.03857227469185</v>
+        <v>27.0695540914281</v>
       </c>
       <c r="H22">
-        <v>18.52552498093477</v>
+        <v>26.80661246082484</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>18.49489021270436</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>22.60317293690622</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>22.60054127613369</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.69361785127972</v>
+        <v>33.69107263381996</v>
       </c>
       <c r="C23">
-        <v>24.03547993861572</v>
+        <v>24.02638971831555</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>17.42697339920232</v>
+        <v>17.42771276278496</v>
       </c>
       <c r="F23">
         <v>40.01414225038419</v>
       </c>
       <c r="G23">
-        <v>26.39117728630062</v>
+        <v>26.42137301463469</v>
       </c>
       <c r="H23">
-        <v>18.18938932578012</v>
+        <v>26.19053011811599</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>18.16054422701177</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>22.11938988723632</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>22.1168935924759</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.98131513339095</v>
+        <v>30.9794532971777</v>
       </c>
       <c r="C24">
-        <v>22.07564957372674</v>
+        <v>22.06774644461305</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>15.90566406811975</v>
+        <v>15.90649068871846</v>
       </c>
       <c r="F24">
         <v>36.8512191057543</v>
       </c>
       <c r="G24">
-        <v>23.98136600837021</v>
+        <v>23.98320143096054</v>
       </c>
       <c r="H24">
-        <v>17.19281355535714</v>
+        <v>24.00770250251448</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>17.16685822511184</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>20.24872573733796</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>20.24670048804171</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.87561335379696</v>
+        <v>27.8743998341395</v>
       </c>
       <c r="C25">
-        <v>19.84633226979611</v>
+        <v>19.83966830188114</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>14.19238104611565</v>
+        <v>14.19324802579566</v>
       </c>
       <c r="F25">
         <v>33.19272459126715</v>
       </c>
       <c r="G25">
-        <v>21.99579456650649</v>
+        <v>21.45881642308986</v>
       </c>
       <c r="H25">
-        <v>16.31421537271555</v>
+        <v>22.02012628757586</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>16.29155559834893</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>18.13376329864123</v>
+        <v>0</v>
       </c>
       <c r="L25">
+        <v>18.13218461309223</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_5/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_5/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.41919377271934</v>
+        <v>23.81939443117901</v>
       </c>
       <c r="C2">
-        <v>18.08816618814905</v>
+        <v>17.05626828135901</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>12.85846054664212</v>
+        <v>13.80995377793903</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>45.2779664895592</v>
       </c>
       <c r="G2">
-        <v>19.70515075045391</v>
+        <v>2.070663877347038</v>
       </c>
       <c r="H2">
-        <v>20.65302781076809</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>15.7962066055893</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>5.97506367202861</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>20.93780010709138</v>
       </c>
       <c r="L2">
-        <v>16.47882881476775</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>12.90368421417039</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.64390552811445</v>
+        <v>22.09106372352019</v>
       </c>
       <c r="C3">
-        <v>16.82704777163212</v>
+        <v>15.80354406490146</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>11.90351197028062</v>
+        <v>13.01133611494059</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>42.94725947568536</v>
       </c>
       <c r="G3">
-        <v>18.53821762291948</v>
+        <v>2.083109589764562</v>
       </c>
       <c r="H3">
-        <v>19.78433906751</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>15.54307891113592</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>5.942763174443607</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>19.40982587688339</v>
       </c>
       <c r="L3">
-        <v>15.29281883189608</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>13.15003395399068</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.49719147802999</v>
+        <v>20.98147143836219</v>
       </c>
       <c r="C4">
-        <v>16.01477170258642</v>
+        <v>14.99915823860127</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>11.29101814502671</v>
+        <v>12.50558095731478</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>41.5076631384298</v>
       </c>
       <c r="G4">
-        <v>17.83306291374111</v>
+        <v>2.090883392849665</v>
       </c>
       <c r="H4">
-        <v>19.27909089668724</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>15.42466681142017</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>5.928106232618808</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>18.42746968364019</v>
       </c>
       <c r="L4">
-        <v>14.53075061049862</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>13.30571291229397</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.01540635026571</v>
+        <v>20.51692851696608</v>
       </c>
       <c r="C5">
-        <v>15.67403677870724</v>
+        <v>14.66230972463388</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11.03466982410359</v>
+        <v>12.29576084953615</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>40.91930053778681</v>
       </c>
       <c r="G5">
-        <v>17.54876402724143</v>
+        <v>2.094088449316</v>
       </c>
       <c r="H5">
-        <v>19.08023400756352</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>15.38513831721916</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>5.923359767686211</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>18.01580428075853</v>
       </c>
       <c r="L5">
-        <v>14.21148220965155</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>13.37024397105978</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.93452451630235</v>
+        <v>20.4390388157404</v>
       </c>
       <c r="C6">
-        <v>15.61686552595586</v>
+        <v>14.60582394717178</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10.99719503977951</v>
+        <v>12.26070110139084</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>40.8215151679152</v>
       </c>
       <c r="G6">
-        <v>17.50174845201896</v>
+        <v>2.094623000121741</v>
       </c>
       <c r="H6">
-        <v>19.04763774316563</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>15.37908418117748</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>5.922643564886775</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>17.9467556485961</v>
       </c>
       <c r="L6">
-        <v>14.15793557369975</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>13.38102470279729</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.49075292645995</v>
+        <v>20.97525680110076</v>
       </c>
       <c r="C7">
-        <v>16.01021604328395</v>
+        <v>14.99465229407527</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11.28758850305872</v>
+        <v>12.50276607689385</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>41.49973454467001</v>
       </c>
       <c r="G7">
-        <v>17.82921605624701</v>
+        <v>2.090926461903922</v>
       </c>
       <c r="H7">
-        <v>19.27638060669692</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>15.42409917302912</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>5.928037351164734</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>18.4219640647431</v>
       </c>
       <c r="L7">
-        <v>14.52648041127808</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>13.3065788069994</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.8186900768683</v>
+        <v>23.23337225394661</v>
       </c>
       <c r="C8">
-        <v>17.66109118351831</v>
+        <v>16.63150779140469</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>12.53451105378133</v>
+        <v>13.5378621704652</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>44.47632086446496</v>
       </c>
       <c r="G8">
-        <v>19.30053474272784</v>
+        <v>2.074930246244168</v>
       </c>
       <c r="H8">
-        <v>20.3476412140508</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>15.70090558059635</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>5.962805811437528</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>20.41997116941671</v>
       </c>
       <c r="L8">
-        <v>16.0767888721287</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>12.98769366428773</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.94572750032225</v>
+        <v>27.28909715923016</v>
       </c>
       <c r="C9">
-        <v>20.60672493344467</v>
+        <v>19.57242639541564</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>14.78107458432675</v>
+        <v>15.44141666040489</v>
       </c>
       <c r="F9">
-        <v>34.45877994148617</v>
+        <v>50.23517646283398</v>
       </c>
       <c r="G9">
-        <v>22.27155857094003</v>
+        <v>2.044408826660617</v>
       </c>
       <c r="H9">
-        <v>22.67424062701597</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>16.56189571900007</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>6.075656429164035</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>23.99972757690415</v>
       </c>
       <c r="L9">
-        <v>18.85866382164838</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>12.39880962524298</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.7288907596061</v>
+        <v>30.06121708488529</v>
       </c>
       <c r="C10">
-        <v>22.60782363104015</v>
+        <v>21.58591903125751</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>16.32449060937185</v>
+        <v>16.76104710589191</v>
       </c>
       <c r="F10">
-        <v>37.72874519847221</v>
+        <v>54.41757899697903</v>
       </c>
       <c r="G10">
-        <v>24.64284681332155</v>
+        <v>2.022179952178293</v>
       </c>
       <c r="H10">
-        <v>24.5284394838964</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>17.42016372222016</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>6.191209904280617</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>26.44285525653561</v>
       </c>
       <c r="L10">
-        <v>20.76128438006236</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>11.99125279075099</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.94558662111488</v>
+        <v>31.28260535660466</v>
       </c>
       <c r="C11">
-        <v>23.48664704711899</v>
+        <v>22.4744224992734</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>17.0070329418837</v>
+        <v>17.34479601539276</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>56.31349952186354</v>
       </c>
       <c r="G11">
-        <v>25.73697921604773</v>
+        <v>2.012024075286439</v>
       </c>
       <c r="H11">
-        <v>25.54183522018624</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>17.86613995797286</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>6.252207490792158</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>27.51880812020733</v>
       </c>
       <c r="L11">
-        <v>21.60040841426189</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>11.81231220833682</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.39966226512984</v>
+        <v>31.73994793837516</v>
       </c>
       <c r="C12">
-        <v>23.81528659856261</v>
+        <v>22.8073732300848</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>17.2630406979791</v>
+        <v>17.56357205829586</v>
       </c>
       <c r="F12">
-        <v>39.67592721363785</v>
+        <v>57.03107397524858</v>
       </c>
       <c r="G12">
-        <v>26.15258573348436</v>
+        <v>2.008163451532706</v>
       </c>
       <c r="H12">
-        <v>25.93553387663146</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>18.04355511720466</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>6.276645222041491</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>27.92164909851455</v>
       </c>
       <c r="L12">
-        <v>21.91478336322873</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>11.74560451794446</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.30215750156864</v>
+        <v>31.64167153846046</v>
       </c>
       <c r="C13">
-        <v>23.74468623304313</v>
+        <v>22.73581448797278</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>17.20800779504177</v>
+        <v>17.51655380591949</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>56.87653588175836</v>
       </c>
       <c r="G13">
-        <v>26.06301055629089</v>
+        <v>2.008995715539224</v>
       </c>
       <c r="H13">
-        <v>25.85061969233691</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>18.00495694699489</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>6.271320361466083</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>27.83508586897702</v>
       </c>
       <c r="L13">
-        <v>21.84722032119817</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>11.75992197993127</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.98307444308201</v>
+        <v>31.32033145952258</v>
       </c>
       <c r="C14">
-        <v>23.51376526943157</v>
+        <v>22.50188204852224</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>17.02814183423202</v>
+        <v>17.36283971425202</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>56.37253795513749</v>
       </c>
       <c r="G14">
-        <v>25.77114222184303</v>
+        <v>2.011706810120384</v>
       </c>
       <c r="H14">
-        <v>25.5741699548417</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>17.88056172276934</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>6.254190372790797</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>27.55203913484855</v>
       </c>
       <c r="L14">
-        <v>21.6263374500156</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>11.80680217061213</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.78677356311958</v>
+        <v>31.12284535618409</v>
       </c>
       <c r="C15">
-        <v>23.37179096176541</v>
+        <v>22.35814934194804</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>16.91766041952408</v>
+        <v>17.26839279271258</v>
       </c>
       <c r="F15">
-        <v>38.96319309154516</v>
+        <v>56.06379823644206</v>
       </c>
       <c r="G15">
-        <v>25.59254929352689</v>
+        <v>2.013365228155946</v>
       </c>
       <c r="H15">
-        <v>25.40519015546685</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>17.80549420773908</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>6.243876209009926</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>27.37808198715856</v>
       </c>
       <c r="L15">
-        <v>21.4906130187704</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>11.83565913482373</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.64841942149891</v>
+        <v>29.980641928875</v>
       </c>
       <c r="C16">
-        <v>22.54978772857938</v>
+        <v>21.52733704026126</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>16.27952046964097</v>
+        <v>16.72257233164998</v>
       </c>
       <c r="F16">
-        <v>37.6346354302881</v>
+        <v>54.29358681513654</v>
       </c>
       <c r="G16">
-        <v>24.57149082076598</v>
+        <v>2.02284208403409</v>
       </c>
       <c r="H16">
-        <v>24.47178368691639</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>17.39218181763572</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>6.187403722737601</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>26.37186685838199</v>
       </c>
       <c r="L16">
-        <v>20.70594843787482</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>12.00308676275445</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.93772324944253</v>
+        <v>29.27013064091145</v>
       </c>
       <c r="C17">
-        <v>22.03770119177216</v>
+        <v>21.01092327755148</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>15.88326870695126</v>
+        <v>16.38354697576832</v>
       </c>
       <c r="F17">
-        <v>36.80228778268389</v>
+        <v>53.20625508074552</v>
       </c>
       <c r="G17">
-        <v>23.94679527561499</v>
+        <v>2.028638963927218</v>
       </c>
       <c r="H17">
-        <v>23.97916407841146</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>17.15323425671906</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>6.155004710982196</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>25.74584018853972</v>
       </c>
       <c r="L17">
-        <v>20.21809748713133</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>12.10752993867234</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.52427221190374</v>
+        <v>28.85769338727438</v>
       </c>
       <c r="C18">
-        <v>21.740173383696</v>
+        <v>20.71128243431184</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>15.6534892930172</v>
+        <v>16.1869809170551</v>
       </c>
       <c r="F18">
-        <v>36.31710943239624</v>
+        <v>52.58017305013109</v>
       </c>
       <c r="G18">
-        <v>23.58795416239934</v>
+        <v>2.031969631408443</v>
       </c>
       <c r="H18">
-        <v>23.6990431314607</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>17.02099257654764</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>6.137154882459233</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>25.38239676398627</v>
       </c>
       <c r="L18">
-        <v>19.93498686927075</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>12.1682014966471</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.38346901267197</v>
+        <v>28.71738689270371</v>
       </c>
       <c r="C19">
-        <v>21.63891162789211</v>
+        <v>20.60936805390764</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>15.57535944340014</v>
+        <v>16.12015540900367</v>
       </c>
       <c r="F19">
-        <v>36.1517249415006</v>
+        <v>52.36806194069631</v>
       </c>
       <c r="G19">
-        <v>23.46652409826973</v>
+        <v>2.033096966777043</v>
       </c>
       <c r="H19">
-        <v>23.6047424174441</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>16.97709384002696</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>6.131242484763247</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>25.25874843069269</v>
       </c>
       <c r="L19">
-        <v>19.8386875457896</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>12.18884344239708</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.01385916893584</v>
+        <v>29.34615237445078</v>
       </c>
       <c r="C20">
-        <v>22.09252050116077</v>
+        <v>21.06616390348256</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>15.92564107902648</v>
+        <v>16.4197984507657</v>
       </c>
       <c r="F20">
-        <v>36.89155697731401</v>
+        <v>53.32207001182985</v>
       </c>
       <c r="G20">
-        <v>24.01324365712436</v>
+        <v>2.028022300287555</v>
       </c>
       <c r="H20">
-        <v>24.03126853055961</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>17.17812915388177</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>6.158371504104847</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>25.81282716186101</v>
       </c>
       <c r="L20">
-        <v>20.27028721543256</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>12.0963490451559</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.07697382166139</v>
+        <v>31.4148524644832</v>
       </c>
       <c r="C21">
-        <v>23.58170174894338</v>
+        <v>22.57068496887286</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>17.08103636224241</v>
+        <v>17.40804999102324</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>56.5205784694963</v>
       </c>
       <c r="G21">
-        <v>25.85683136312949</v>
+        <v>2.010910972813468</v>
       </c>
       <c r="H21">
-        <v>25.65529522404814</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>17.91686347843032</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>6.259184427451641</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>27.63529728718121</v>
       </c>
       <c r="L21">
-        <v>21.6913043254976</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>11.7930025581211</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.38676721313086</v>
+        <v>32.73704492994409</v>
       </c>
       <c r="C22">
-        <v>24.53098653348195</v>
+        <v>23.5337986044007</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>17.82204584199</v>
+        <v>18.04074198667395</v>
       </c>
       <c r="F22">
-        <v>40.81974568026788</v>
+        <v>58.60929054849636</v>
       </c>
       <c r="G22">
-        <v>27.0695540914281</v>
+        <v>1.999636354509531</v>
       </c>
       <c r="H22">
-        <v>26.80661246082484</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>18.49489021270436</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>6.332949081354224</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>28.79987081882187</v>
       </c>
       <c r="L22">
-        <v>22.60054127613369</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>11.60097413290958</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.69107263381996</v>
+        <v>32.03389416756286</v>
       </c>
       <c r="C23">
-        <v>24.02638971831555</v>
+        <v>23.02144797847043</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>17.42771276278496</v>
+        <v>17.70422152531431</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>57.49440053467514</v>
       </c>
       <c r="G23">
-        <v>26.42137301463469</v>
+        <v>2.005665388271097</v>
       </c>
       <c r="H23">
-        <v>26.19053011811599</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>18.16054422701177</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>6.292812381978553</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>28.18055668656276</v>
       </c>
       <c r="L23">
-        <v>22.1168935924759</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>11.70284213811092</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.9794532971777</v>
+        <v>29.31179530616876</v>
       </c>
       <c r="C24">
-        <v>22.06774644461305</v>
+        <v>21.04119820712759</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>15.90649068871846</v>
+        <v>16.40341432372334</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>53.26971311466728</v>
       </c>
       <c r="G24">
-        <v>23.98320143096054</v>
+        <v>2.028301099639529</v>
       </c>
       <c r="H24">
-        <v>24.00770250251448</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>17.16685822511184</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>6.156846966756783</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>25.78255339011256</v>
       </c>
       <c r="L24">
-        <v>20.24670048804171</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>12.10140198688774</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.8743998341395</v>
+        <v>26.22997602238211</v>
       </c>
       <c r="C25">
-        <v>19.83966830188114</v>
+        <v>18.80403110169631</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>14.19324802579566</v>
+        <v>14.94034594209794</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>48.6864034790965</v>
       </c>
       <c r="G25">
-        <v>21.45881642308986</v>
+        <v>2.05260554964298</v>
       </c>
       <c r="H25">
-        <v>22.02012628757586</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>16.29155559834893</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>6.039814086862743</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>23.0656813128221</v>
       </c>
       <c r="L25">
-        <v>18.13218461309223</v>
+        <v>0</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>12.55397896235384</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_5/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_5/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23.81939443117901</v>
+        <v>12.9015721601291</v>
       </c>
       <c r="C2">
-        <v>17.05626828135901</v>
+        <v>7.026589883649933</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>13.80995377793903</v>
+        <v>7.854759598064918</v>
       </c>
       <c r="F2">
-        <v>45.2779664895592</v>
+        <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>2.070663877347038</v>
+        <v>2.115402917449347</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.97506367202861</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>20.93780010709138</v>
+        <v>10.1719921674079</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.19403654656336</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>9.785657956939</v>
       </c>
       <c r="N2">
-        <v>12.90368421417039</v>
+        <v>13.60672017123504</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>16.73686422157063</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.09106372352019</v>
+        <v>12.14293981510201</v>
       </c>
       <c r="C3">
-        <v>15.80354406490146</v>
+        <v>7.019646611091081</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>13.01133611494059</v>
+        <v>7.845595483485683</v>
       </c>
       <c r="F3">
-        <v>42.94725947568536</v>
+        <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>2.083109589764562</v>
+        <v>2.119701818095211</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.942763174443607</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>19.40982587688339</v>
+        <v>9.575308643899977</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.114439042958699</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>9.495462409707399</v>
       </c>
       <c r="N3">
-        <v>13.15003395399068</v>
+        <v>13.80688255321317</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>16.85934338156967</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.98147143836219</v>
+        <v>11.65617951129429</v>
       </c>
       <c r="C4">
-        <v>14.99915823860127</v>
+        <v>7.016160453225297</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>12.50558095731478</v>
+        <v>7.843750806146968</v>
       </c>
       <c r="F4">
-        <v>41.5076631384298</v>
+        <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>2.090883392849665</v>
+        <v>2.122426420596198</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.928106232618808</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>18.42746968364019</v>
+        <v>9.189295818605506</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.067668514286457</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>9.316512467374453</v>
       </c>
       <c r="N4">
-        <v>13.30571291229397</v>
+        <v>13.93274264538494</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>16.94623259581006</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.51692851696608</v>
+        <v>11.45270472605195</v>
       </c>
       <c r="C5">
-        <v>14.66230972463388</v>
+        <v>7.01493353153493</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12.29576084953615</v>
+        <v>7.843932439309727</v>
       </c>
       <c r="F5">
-        <v>40.91930053778681</v>
+        <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>2.094088449316</v>
+        <v>2.123558517922216</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.923359767686211</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>18.01580428075853</v>
+        <v>9.027085561620247</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.04914903678767</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.243500506317307</v>
       </c>
       <c r="N5">
-        <v>13.37024397105978</v>
+        <v>13.98479513538265</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>16.98446857157259</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.4390388157404</v>
+        <v>11.41861411859297</v>
       </c>
       <c r="C6">
-        <v>14.60582394717178</v>
+        <v>7.014741454641229</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12.26070110139084</v>
+        <v>7.844018443235065</v>
       </c>
       <c r="F6">
-        <v>40.8215151679152</v>
+        <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>2.094623000121741</v>
+        <v>2.123747830188794</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.922643564886775</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>17.9467556485961</v>
+        <v>8.999855541474725</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.046106803322014</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.231374765745946</v>
       </c>
       <c r="N6">
-        <v>13.38102470279729</v>
+        <v>13.99348507332381</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>16.99098527432578</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.97525680110076</v>
+        <v>11.65345586367326</v>
       </c>
       <c r="C7">
-        <v>14.99465229407527</v>
+        <v>7.016143124332253</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>12.50276607689385</v>
+        <v>7.84374950037999</v>
       </c>
       <c r="F7">
-        <v>41.49973454467001</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>2.090926461903922</v>
+        <v>2.122441599658053</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.928037351164734</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>18.4219640647431</v>
+        <v>9.187128008644169</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.0674165542203</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>9.315528017550164</v>
       </c>
       <c r="N7">
-        <v>13.3065788069994</v>
+        <v>13.93344152719874</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>16.94673695241269</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.23337225394661</v>
+        <v>12.64442675273083</v>
       </c>
       <c r="C8">
-        <v>16.63150779140469</v>
+        <v>7.024033527540229</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>13.5378621704652</v>
+        <v>7.850804362527085</v>
       </c>
       <c r="F8">
-        <v>44.47632086446496</v>
+        <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>2.074930246244168</v>
+        <v>2.116867776659372</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.962805811437528</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>20.41997116941671</v>
+        <v>9.970349543891606</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.166161940239127</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>9.685819089246342</v>
       </c>
       <c r="N8">
-        <v>12.98769366428773</v>
+        <v>13.67513376537515</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>16.77660147210271</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.28909715923016</v>
+        <v>14.41636198000001</v>
       </c>
       <c r="C9">
-        <v>19.57242639541564</v>
+        <v>7.045754668873565</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>15.44141666040489</v>
+        <v>7.895412404881688</v>
       </c>
       <c r="F9">
-        <v>50.23517646283398</v>
+        <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>2.044408826660617</v>
+        <v>2.10659294820117</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.075656429164035</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>23.99972757690415</v>
+        <v>11.3494994869165</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>6.375950953090297</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>10.40159017566021</v>
       </c>
       <c r="N9">
-        <v>12.39880962524298</v>
+        <v>13.19115687666239</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>16.54088561545575</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.06121708488529</v>
+        <v>15.67589728999378</v>
       </c>
       <c r="C10">
-        <v>21.58591903125751</v>
+        <v>7.065648502134299</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>16.76104710589191</v>
+        <v>7.947951894525924</v>
       </c>
       <c r="F10">
-        <v>54.41757899697903</v>
+        <v>37.72874519847217</v>
       </c>
       <c r="G10">
-        <v>2.022179952178293</v>
+        <v>2.099415030226865</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.191209904280617</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>26.44285525653561</v>
+        <v>12.26676832132328</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>6.539172781745951</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>10.91596811062417</v>
       </c>
       <c r="N10">
-        <v>11.99125279075099</v>
+        <v>12.84798198728472</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>16.43486242932332</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.28260535660466</v>
+        <v>16.24039829530714</v>
       </c>
       <c r="C11">
-        <v>22.4744224992734</v>
+        <v>7.075583933900967</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>17.34479601539276</v>
+        <v>7.976347629415995</v>
       </c>
       <c r="F11">
-        <v>56.31349952186354</v>
+        <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>2.012024075286439</v>
+        <v>2.096223522876381</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.252207490792158</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>27.51880812020733</v>
+        <v>12.66328132731824</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>6.615232903341167</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>11.14654309055924</v>
       </c>
       <c r="N11">
-        <v>11.81231220833682</v>
+        <v>12.69424061092246</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>16.4029162927726</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.73994793837516</v>
+        <v>16.44970921855837</v>
       </c>
       <c r="C12">
-        <v>22.8073732300848</v>
+        <v>7.079476305797545</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>17.56357205829586</v>
+        <v>7.987762262227186</v>
       </c>
       <c r="F12">
-        <v>57.03107397524858</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>2.008163451532706</v>
+        <v>2.095025014566965</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.276645222041491</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>27.92164909851455</v>
+        <v>12.81045811764368</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>6.6442809235063</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>11.23329781611234</v>
       </c>
       <c r="N12">
-        <v>11.74560451794446</v>
+        <v>12.63633640577375</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>16.39330769621832</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.64167153846046</v>
+        <v>16.40482766448685</v>
       </c>
       <c r="C13">
-        <v>22.73581448797278</v>
+        <v>7.078632184934241</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>17.51655380591949</v>
+        <v>7.985274245578002</v>
       </c>
       <c r="F13">
-        <v>56.87653588175836</v>
+        <v>39.5626640325822</v>
       </c>
       <c r="G13">
-        <v>2.008995715539224</v>
+        <v>2.095282697242753</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.271320361466083</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>27.83508586897702</v>
+        <v>12.77889300981801</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>6.63801421210522</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>11.2146394808448</v>
       </c>
       <c r="N13">
-        <v>11.75992197993127</v>
+        <v>12.64879357266798</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>16.39526400354406</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.32033145952258</v>
+        <v>16.25770740791172</v>
       </c>
       <c r="C14">
-        <v>22.50188204852224</v>
+        <v>7.075901539238203</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>17.36283971425202</v>
+        <v>7.977273369131099</v>
       </c>
       <c r="F14">
-        <v>56.37253795513749</v>
+        <v>39.19167637503948</v>
       </c>
       <c r="G14">
-        <v>2.011706810120384</v>
+        <v>2.096124722861886</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.254190372790797</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>27.55203913484855</v>
+        <v>12.67544917556959</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>6.617617859057007</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>11.15369201408049</v>
       </c>
       <c r="N14">
-        <v>11.80680217061213</v>
+        <v>12.68947065541307</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>16.4020750517992</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.12284535618409</v>
+        <v>16.16701346606191</v>
       </c>
       <c r="C15">
-        <v>22.35814934194804</v>
+        <v>7.074245958743795</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>17.26839279271258</v>
+        <v>7.97245923077885</v>
       </c>
       <c r="F15">
-        <v>56.06379823644206</v>
+        <v>38.96319309123409</v>
       </c>
       <c r="G15">
-        <v>2.013365228155946</v>
+        <v>2.096641778992114</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.243876209009926</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>27.37808198715856</v>
+        <v>12.61169993451579</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>6.605156076751912</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>11.11628527182909</v>
       </c>
       <c r="N15">
-        <v>11.83565913482373</v>
+        <v>12.71442666175081</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>16.40657556145031</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.980641928875</v>
+        <v>15.63838004711179</v>
       </c>
       <c r="C16">
-        <v>21.52733704026126</v>
+        <v>7.06501724372901</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>16.72257233164998</v>
+        <v>7.9461879508204</v>
       </c>
       <c r="F16">
-        <v>54.29358681513654</v>
+        <v>37.63463543028809</v>
       </c>
       <c r="G16">
-        <v>2.02284208403409</v>
+        <v>2.099625039831536</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.187403722737601</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>26.37186685838199</v>
+        <v>12.24043837878586</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>6.534237240016372</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>10.90082474931006</v>
       </c>
       <c r="N16">
-        <v>12.00308676275445</v>
+        <v>12.85807481346724</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>16.43729033150193</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.27013064091145</v>
+        <v>15.30609791692897</v>
       </c>
       <c r="C17">
-        <v>21.01092327755148</v>
+        <v>7.059584394953188</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>16.38354697576832</v>
+        <v>7.931233851302504</v>
       </c>
       <c r="F17">
-        <v>53.20625508074552</v>
+        <v>36.8022877826839</v>
       </c>
       <c r="G17">
-        <v>2.028638963927218</v>
+        <v>2.101473677236115</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.155004710982196</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>25.74584018853972</v>
+        <v>12.00737102103917</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>6.491183903549964</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>10.76772052515572</v>
       </c>
       <c r="N17">
-        <v>12.10752993867234</v>
+        <v>12.94678703795991</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>16.46040680790732</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.85769338727438</v>
+        <v>15.11202950175953</v>
       </c>
       <c r="C18">
-        <v>20.71128243431184</v>
+        <v>7.056542749245922</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>16.1869809170551</v>
+        <v>7.923054885659623</v>
       </c>
       <c r="F18">
-        <v>52.58017305013109</v>
+        <v>36.31710943239618</v>
       </c>
       <c r="G18">
-        <v>2.031969631408443</v>
+        <v>2.102543942962184</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.137154882459233</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>25.38239676398627</v>
+        <v>11.87136207503023</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>6.466591958506193</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>10.69084426299406</v>
       </c>
       <c r="N18">
-        <v>12.1682014966471</v>
+        <v>12.99803677410921</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>16.47522645773536</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.71738689270371</v>
+        <v>15.0458134662356</v>
       </c>
       <c r="C19">
-        <v>20.60936805390764</v>
+        <v>7.055527109339756</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>16.12015540900367</v>
+        <v>7.920357669348759</v>
       </c>
       <c r="F19">
-        <v>52.36806194069631</v>
+        <v>36.15172494150058</v>
       </c>
       <c r="G19">
-        <v>2.033096966777043</v>
+        <v>2.102907531665373</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.131242484763247</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>25.25874843069269</v>
+        <v>11.82497580725465</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.458295399281779</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>10.66476281994339</v>
       </c>
       <c r="N19">
-        <v>12.18884344239708</v>
+        <v>13.01542845072197</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>16.48050142270538</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.34615237445078</v>
+        <v>15.34177474510224</v>
       </c>
       <c r="C20">
-        <v>21.06616390348256</v>
+        <v>7.060154102914042</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>16.4197984507657</v>
+        <v>7.932781927490905</v>
       </c>
       <c r="F20">
-        <v>53.32207001182985</v>
+        <v>36.89155697731404</v>
       </c>
       <c r="G20">
-        <v>2.028022300287555</v>
+        <v>2.101276168353392</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.158371504104847</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>25.81282716186101</v>
+        <v>12.03238368829345</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>6.495749392985954</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>10.78192314872897</v>
       </c>
       <c r="N20">
-        <v>12.0963490451559</v>
+        <v>12.93732039079753</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>16.45778727561872</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.4148524644832</v>
+        <v>16.30104067375614</v>
       </c>
       <c r="C21">
-        <v>22.57068496887286</v>
+        <v>7.076700044217259</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>17.40804999102324</v>
+        <v>7.979605340411649</v>
       </c>
       <c r="F21">
-        <v>56.5205784694963</v>
+        <v>39.30090300329766</v>
       </c>
       <c r="G21">
-        <v>2.010910972813468</v>
+        <v>2.095877131504273</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.259184427451641</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>27.63529728718121</v>
+        <v>12.70591374168382</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>6.623602207958664</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>11.17160942994032</v>
       </c>
       <c r="N21">
-        <v>11.7930025581211</v>
+        <v>12.67751449911892</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>16.40000574444001</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.73704492994409</v>
+        <v>16.90204195016708</v>
       </c>
       <c r="C22">
-        <v>23.5337986044007</v>
+        <v>7.088273169940688</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>18.04074198667395</v>
+        <v>8.014071238018857</v>
       </c>
       <c r="F22">
-        <v>58.60929054849636</v>
+        <v>40.81974568026789</v>
       </c>
       <c r="G22">
-        <v>1.999636354509531</v>
+        <v>2.092406822170595</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.332949081354224</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>28.79987081882187</v>
+        <v>13.1287778342596</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>6.708587144525575</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>11.42300821489565</v>
       </c>
       <c r="N22">
-        <v>11.60097413290958</v>
+        <v>12.50953495606603</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>16.37681966800576</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.03389416756286</v>
+        <v>16.58363329681377</v>
       </c>
       <c r="C23">
-        <v>23.02144797847043</v>
+        <v>7.082025937577888</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>17.70422152531431</v>
+        <v>7.995317654100393</v>
       </c>
       <c r="F23">
-        <v>57.49440053467514</v>
+        <v>40.01414225038419</v>
       </c>
       <c r="G23">
-        <v>2.005665388271097</v>
+        <v>2.094253853413745</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.292812381978553</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>28.18055668656276</v>
+        <v>12.90466785401785</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>6.663103318745726</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>11.28915253024183</v>
       </c>
       <c r="N23">
-        <v>11.70284213811092</v>
+        <v>12.59903158163854</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>16.38781092747387</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.31179530616876</v>
+        <v>15.32565470792632</v>
       </c>
       <c r="C24">
-        <v>21.04119820712759</v>
+        <v>7.059896283444955</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>16.40341432372334</v>
+        <v>7.932080740364625</v>
       </c>
       <c r="F24">
-        <v>53.26971311466728</v>
+        <v>36.8512191057543</v>
       </c>
       <c r="G24">
-        <v>2.028301099639529</v>
+        <v>2.101365438842231</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.156846966756783</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>25.78255339011256</v>
+        <v>12.02108173976224</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>6.493684835765627</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>10.77550323650765</v>
       </c>
       <c r="N24">
-        <v>12.10140198688774</v>
+        <v>12.94159948784575</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>16.45896681263825</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.22997602238211</v>
+        <v>13.95594353017013</v>
       </c>
       <c r="C25">
-        <v>18.80403110169631</v>
+        <v>7.039197124700047</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>14.94034594209794</v>
+        <v>7.879943868142993</v>
       </c>
       <c r="F25">
-        <v>48.6864034790965</v>
+        <v>33.19272459126715</v>
       </c>
       <c r="G25">
-        <v>2.05260554964298</v>
+        <v>2.109305259236022</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.039814086862743</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>23.0656813128221</v>
+        <v>10.99326042934093</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>6.317544507792906</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>10.20963021061937</v>
       </c>
       <c r="N25">
-        <v>12.55397896235384</v>
+        <v>13.31980540489233</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>16.59341868677735</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_5/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_5/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.9015721601291</v>
+        <v>13.03148819180643</v>
       </c>
       <c r="C2">
-        <v>7.026589883649933</v>
+        <v>9.593674530799468</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>7.854759598064918</v>
+        <v>12.74524976387822</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391233</v>
       </c>
       <c r="G2">
-        <v>2.115402917449347</v>
+        <v>3.673189197126387</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.1719921674079</v>
+        <v>9.418277300808496</v>
       </c>
       <c r="L2">
-        <v>6.19403654656336</v>
+        <v>9.951288756319935</v>
       </c>
       <c r="M2">
-        <v>9.785657956939</v>
+        <v>14.46702459954551</v>
       </c>
       <c r="N2">
-        <v>13.60672017123504</v>
+        <v>20.77650444022321</v>
       </c>
       <c r="O2">
-        <v>16.73686422157063</v>
+        <v>26.42444030374187</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.14293981510201</v>
+        <v>12.85150573726562</v>
       </c>
       <c r="C3">
-        <v>7.019646611091081</v>
+        <v>9.595493443088982</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>7.845595483485683</v>
+        <v>12.77179413609868</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866808</v>
       </c>
       <c r="G3">
-        <v>2.119701818095211</v>
+        <v>3.674819255093851</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.575308643899977</v>
+        <v>9.285767747287739</v>
       </c>
       <c r="L3">
-        <v>6.114439042958699</v>
+        <v>9.958310512857667</v>
       </c>
       <c r="M3">
-        <v>9.495462409707399</v>
+        <v>14.44385634529189</v>
       </c>
       <c r="N3">
-        <v>13.80688255321317</v>
+        <v>20.83781109935131</v>
       </c>
       <c r="O3">
-        <v>16.85934338156967</v>
+        <v>26.51693559186113</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.65617951129429</v>
+        <v>12.74216574062311</v>
       </c>
       <c r="C4">
-        <v>7.016160453225297</v>
+        <v>9.596946724846834</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>7.843750806146968</v>
+        <v>12.78982880706979</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108491</v>
       </c>
       <c r="G4">
-        <v>2.122426420596198</v>
+        <v>3.675873612738297</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.189295818605506</v>
+        <v>9.204943792927869</v>
       </c>
       <c r="L4">
-        <v>6.067668514286457</v>
+        <v>9.963924471670028</v>
       </c>
       <c r="M4">
-        <v>9.316512467374453</v>
+        <v>14.43167193604012</v>
       </c>
       <c r="N4">
-        <v>13.93274264538494</v>
+        <v>20.87725191444903</v>
       </c>
       <c r="O4">
-        <v>16.94623259581006</v>
+        <v>26.57835323992428</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.45270472605195</v>
+        <v>12.6979565348799</v>
       </c>
       <c r="C5">
-        <v>7.01493353153493</v>
+        <v>9.597623932879811</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7.843932439309727</v>
+        <v>12.79761497541842</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.00819731993403</v>
       </c>
       <c r="G5">
-        <v>2.123558517922216</v>
+        <v>3.676316764708715</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.027085561620247</v>
+        <v>9.172180848905978</v>
       </c>
       <c r="L5">
-        <v>6.04914903678767</v>
+        <v>9.966540352302111</v>
       </c>
       <c r="M5">
-        <v>9.243500506317307</v>
+        <v>14.42722395710906</v>
       </c>
       <c r="N5">
-        <v>13.98479513538265</v>
+        <v>20.89377786695563</v>
       </c>
       <c r="O5">
-        <v>16.98446857157259</v>
+        <v>26.60454380150546</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.41861411859297</v>
+        <v>12.69063818917687</v>
       </c>
       <c r="C6">
-        <v>7.014741454641229</v>
+        <v>9.597741526611621</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7.844018443235065</v>
+        <v>12.79893425786183</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551593</v>
       </c>
       <c r="G6">
-        <v>2.123747830188794</v>
+        <v>3.676391165881206</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.999855541474725</v>
+        <v>9.166752182994317</v>
       </c>
       <c r="L6">
-        <v>6.046106803322014</v>
+        <v>9.966994552982312</v>
       </c>
       <c r="M6">
-        <v>9.231374765745946</v>
+        <v>14.42651672725979</v>
       </c>
       <c r="N6">
-        <v>13.99348507332381</v>
+        <v>20.89654941758282</v>
       </c>
       <c r="O6">
-        <v>16.99098527432578</v>
+        <v>26.60896290929208</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.65345586367326</v>
+        <v>12.7415680414088</v>
       </c>
       <c r="C7">
-        <v>7.016143124332253</v>
+        <v>9.59695551331146</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7.84374950037999</v>
+        <v>12.78993204473043</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323137</v>
       </c>
       <c r="G7">
-        <v>2.122441599658053</v>
+        <v>3.675879534554796</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.187128008644169</v>
+        <v>9.20450118743644</v>
       </c>
       <c r="L7">
-        <v>6.0674165542203</v>
+        <v>9.96395842094179</v>
       </c>
       <c r="M7">
-        <v>9.315528017550164</v>
+        <v>14.43160984953768</v>
       </c>
       <c r="N7">
-        <v>13.93344152719874</v>
+        <v>20.87747295128389</v>
       </c>
       <c r="O7">
-        <v>16.94673695241269</v>
+        <v>26.57870174948258</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.64442675273083</v>
+        <v>12.96921961848429</v>
       </c>
       <c r="C8">
-        <v>7.024033527540229</v>
+        <v>9.594232085279977</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>7.850804362527085</v>
+        <v>12.75404206619561</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.53996406344768</v>
       </c>
       <c r="G8">
-        <v>2.116867776659372</v>
+        <v>3.673740162732551</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>9.970349543891606</v>
+        <v>9.372499455456078</v>
       </c>
       <c r="L8">
-        <v>6.166161940239127</v>
+        <v>9.953439888942315</v>
       </c>
       <c r="M8">
-        <v>9.685819089246342</v>
+        <v>14.45861509150914</v>
       </c>
       <c r="N8">
-        <v>13.67513376537515</v>
+        <v>20.79727053445455</v>
       </c>
       <c r="O8">
-        <v>16.77660147210271</v>
+        <v>26.45537232969447</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.41636198000001</v>
+        <v>13.42256849938506</v>
       </c>
       <c r="C9">
-        <v>7.045754668873565</v>
+        <v>9.591544854090651</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>7.895412404881688</v>
+        <v>12.69742596350339</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>2.10659294820117</v>
+        <v>3.669967460214702</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>11.3494994869165</v>
+        <v>9.704529013272479</v>
       </c>
       <c r="L9">
-        <v>6.375950953090297</v>
+        <v>9.943120169614339</v>
       </c>
       <c r="M9">
-        <v>10.40159017566021</v>
+        <v>14.52757730701004</v>
       </c>
       <c r="N9">
-        <v>13.19115687666239</v>
+        <v>20.65420175177243</v>
       </c>
       <c r="O9">
-        <v>16.54088561545575</v>
+        <v>26.25025178827579</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.67589728999378</v>
+        <v>13.75672673170224</v>
       </c>
       <c r="C10">
-        <v>7.065648502134299</v>
+        <v>9.591166727569243</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>7.947951894525924</v>
+        <v>12.66420294012902</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>2.099415030226865</v>
+        <v>3.667450672999058</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>12.26676832132328</v>
+        <v>9.947824651618161</v>
       </c>
       <c r="L10">
-        <v>6.539172781745951</v>
+        <v>9.941781306677495</v>
       </c>
       <c r="M10">
-        <v>10.91596811062417</v>
+        <v>14.58773019552329</v>
       </c>
       <c r="N10">
-        <v>12.84798198728472</v>
+        <v>20.55766448206705</v>
       </c>
       <c r="O10">
-        <v>16.43486242932332</v>
+        <v>26.12198001054916</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.24039829530714</v>
+        <v>13.90832831704942</v>
       </c>
       <c r="C11">
-        <v>7.075583933900967</v>
+        <v>9.591336743720575</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7.976347629415995</v>
+        <v>12.6509026860457</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>2.096223522876381</v>
+        <v>3.666360541002083</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>12.66328132731824</v>
+        <v>10.05790791418587</v>
       </c>
       <c r="L11">
-        <v>6.615232903341167</v>
+        <v>9.942517878757858</v>
       </c>
       <c r="M11">
-        <v>11.14654309055924</v>
+        <v>14.61709130505821</v>
       </c>
       <c r="N11">
-        <v>12.69424061092246</v>
+        <v>20.5155908662139</v>
       </c>
       <c r="O11">
-        <v>16.4029162927726</v>
+        <v>26.06850500996562</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.44970921855837</v>
+        <v>13.96562444674974</v>
       </c>
       <c r="C12">
-        <v>7.079476305797545</v>
+        <v>9.591449913287956</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>7.987762262227186</v>
+        <v>12.64612654230871</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>2.095025014566965</v>
+        <v>3.665955569920593</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>12.81045811764368</v>
+        <v>10.09947138362029</v>
       </c>
       <c r="L12">
-        <v>6.6442809235063</v>
+        <v>9.942989317790301</v>
       </c>
       <c r="M12">
-        <v>11.23329781611234</v>
+        <v>14.62849088113044</v>
       </c>
       <c r="N12">
-        <v>12.63633640577375</v>
+        <v>20.4999221564455</v>
       </c>
       <c r="O12">
-        <v>16.39330769621832</v>
+        <v>26.04895743976089</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.40482766448685</v>
+        <v>13.95329051724809</v>
       </c>
       <c r="C13">
-        <v>7.078632184934241</v>
+        <v>9.591423376650399</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>7.985274245578002</v>
+        <v>12.64714359591745</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>2.095282697242753</v>
+        <v>3.666042439669529</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>12.77889300981801</v>
+        <v>10.09052598437046</v>
       </c>
       <c r="L13">
-        <v>6.63801421210522</v>
+        <v>9.942879239268477</v>
       </c>
       <c r="M13">
-        <v>11.2146394808448</v>
+        <v>14.62602337296629</v>
       </c>
       <c r="N13">
-        <v>12.64879357266798</v>
+        <v>20.50328498588122</v>
       </c>
       <c r="O13">
-        <v>16.39526400354406</v>
+        <v>26.05313610974887</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.25770740791172</v>
+        <v>13.91304465037991</v>
       </c>
       <c r="C14">
-        <v>7.075901539238203</v>
+        <v>9.591345078733683</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>7.977273369131099</v>
+        <v>12.65050453362105</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>2.096124722861886</v>
+        <v>3.666327066909591</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>12.67544917556959</v>
+        <v>10.06133003398145</v>
       </c>
       <c r="L14">
-        <v>6.617617859057007</v>
+        <v>9.942552811944552</v>
       </c>
       <c r="M14">
-        <v>11.15369201408049</v>
+        <v>14.61802355577238</v>
       </c>
       <c r="N14">
-        <v>12.68947065541307</v>
+        <v>20.51429651467194</v>
       </c>
       <c r="O14">
-        <v>16.4020750517992</v>
+        <v>26.06688273960858</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.16701346606191</v>
+        <v>13.88837674130752</v>
       </c>
       <c r="C15">
-        <v>7.074245958743795</v>
+        <v>9.591303460887962</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>7.97245923077885</v>
+        <v>12.65259710266145</v>
       </c>
       <c r="F15">
-        <v>38.96319309123409</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>2.096641778992114</v>
+        <v>3.666502428984089</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>12.61169993451579</v>
+        <v>10.04342960785456</v>
       </c>
       <c r="L15">
-        <v>6.605156076751912</v>
+        <v>9.942377906447641</v>
       </c>
       <c r="M15">
-        <v>11.11628527182909</v>
+        <v>14.61315986804988</v>
       </c>
       <c r="N15">
-        <v>12.71442666175081</v>
+        <v>20.52107569505816</v>
       </c>
       <c r="O15">
-        <v>16.40657556145031</v>
+        <v>26.07539443140935</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.63838004711179</v>
+        <v>13.74680639205192</v>
       </c>
       <c r="C16">
-        <v>7.06501724372901</v>
+        <v>9.591162465377842</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>7.9461879508204</v>
+        <v>12.66510859793769</v>
       </c>
       <c r="F16">
-        <v>37.63463543028809</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>2.099625039831536</v>
+        <v>3.667523014556783</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>12.24043837878586</v>
+        <v>9.940615292337146</v>
       </c>
       <c r="L16">
-        <v>6.534237240016372</v>
+        <v>9.941760164983641</v>
       </c>
       <c r="M16">
-        <v>10.90082474931006</v>
+        <v>14.58585105794499</v>
       </c>
       <c r="N16">
-        <v>12.85807481346724</v>
+        <v>20.56045105027766</v>
       </c>
       <c r="O16">
-        <v>16.43729033150193</v>
+        <v>26.12557294218729</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.30609791692897</v>
+        <v>13.65981444716912</v>
       </c>
       <c r="C17">
-        <v>7.059584394953188</v>
+        <v>9.591163290456164</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>7.931233851302504</v>
+        <v>12.67324813061149</v>
       </c>
       <c r="F17">
-        <v>36.8022877826839</v>
+        <v>20.20408069597325</v>
       </c>
       <c r="G17">
-        <v>2.101473677236115</v>
+        <v>3.668163111353281</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12.00737102103917</v>
+        <v>9.877363138338938</v>
       </c>
       <c r="L17">
-        <v>6.491183903549964</v>
+        <v>9.941725171424681</v>
       </c>
       <c r="M17">
-        <v>10.76772052515572</v>
+        <v>14.5696053256777</v>
       </c>
       <c r="N17">
-        <v>12.94678703795991</v>
+        <v>20.58507741225185</v>
       </c>
       <c r="O17">
-        <v>16.46040680790732</v>
+        <v>26.15760554427372</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.11202950175953</v>
+        <v>13.60974361204027</v>
       </c>
       <c r="C18">
-        <v>7.056542749245922</v>
+        <v>9.591195982093186</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>7.923054885659623</v>
+        <v>12.67810045132686</v>
       </c>
       <c r="F18">
-        <v>36.31710943239618</v>
+        <v>19.95656407809801</v>
       </c>
       <c r="G18">
-        <v>2.102543942962184</v>
+        <v>3.668536435247023</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>11.87136207503023</v>
+        <v>9.840928505700381</v>
       </c>
       <c r="L18">
-        <v>6.466591958506193</v>
+        <v>9.941831764518732</v>
       </c>
       <c r="M18">
-        <v>10.69084426299406</v>
+        <v>14.56044958169398</v>
       </c>
       <c r="N18">
-        <v>12.99803677410921</v>
+        <v>20.59941526071522</v>
       </c>
       <c r="O18">
-        <v>16.47522645773536</v>
+        <v>26.17648878599985</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.0458134662356</v>
+        <v>13.59278606419348</v>
       </c>
       <c r="C19">
-        <v>7.055527109339756</v>
+        <v>9.591212596224754</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>7.920357669348759</v>
+        <v>12.67977268758647</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>19.87204792380568</v>
       </c>
       <c r="G19">
-        <v>2.102907531665373</v>
+        <v>3.668663723186236</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>11.82497580725465</v>
+        <v>9.828584306938454</v>
       </c>
       <c r="L19">
-        <v>6.458295399281779</v>
+        <v>9.941889648238677</v>
       </c>
       <c r="M19">
-        <v>10.66476281994339</v>
+        <v>14.55738213649496</v>
       </c>
       <c r="N19">
-        <v>13.01542845072197</v>
+        <v>20.60429963027468</v>
       </c>
       <c r="O19">
-        <v>16.48050142270538</v>
+        <v>26.18296111870881</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.34177474510224</v>
+        <v>13.6690789402896</v>
       </c>
       <c r="C20">
-        <v>7.060154102914042</v>
+        <v>9.591159871136906</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>7.932781927490905</v>
+        <v>12.67236400144457</v>
       </c>
       <c r="F20">
-        <v>36.89155697731404</v>
+        <v>20.24955283636154</v>
       </c>
       <c r="G20">
-        <v>2.101276168353392</v>
+        <v>3.668094438482316</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>12.03238368829345</v>
+        <v>9.884102267123374</v>
       </c>
       <c r="L20">
-        <v>6.495749392985954</v>
+        <v>9.941715788352539</v>
       </c>
       <c r="M20">
-        <v>10.78192314872897</v>
+        <v>14.57131525872624</v>
       </c>
       <c r="N20">
-        <v>12.93732039079753</v>
+        <v>20.58243795457293</v>
       </c>
       <c r="O20">
-        <v>16.45778727561872</v>
+        <v>26.15414811348892</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.30104067375614</v>
+        <v>13.92486929625092</v>
       </c>
       <c r="C21">
-        <v>7.076700044217259</v>
+        <v>9.591366755795235</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>7.979605340411649</v>
+        <v>12.64951028116412</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>2.095877131504273</v>
+        <v>3.666243252557307</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>12.70591374168382</v>
+        <v>10.06990921325328</v>
       </c>
       <c r="L21">
-        <v>6.623602207958664</v>
+        <v>9.942643474972792</v>
       </c>
       <c r="M21">
-        <v>11.17160942994032</v>
+        <v>14.62036571492911</v>
       </c>
       <c r="N21">
-        <v>12.67751449911892</v>
+        <v>20.5110550155152</v>
       </c>
       <c r="O21">
-        <v>16.40000574444001</v>
+        <v>26.06282595418619</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.90204195016708</v>
+        <v>14.09136615120563</v>
       </c>
       <c r="C22">
-        <v>7.088273169940688</v>
+        <v>9.591786156386233</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>8.014071238018857</v>
+        <v>12.63609153044425</v>
       </c>
       <c r="F22">
-        <v>40.81974568026789</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>2.092406822170595</v>
+        <v>3.665079065807187</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>13.1287778342596</v>
+        <v>10.19061334679406</v>
       </c>
       <c r="L22">
-        <v>6.708587144525575</v>
+        <v>9.944371387966065</v>
       </c>
       <c r="M22">
-        <v>11.42300821489565</v>
+        <v>14.65405884534896</v>
       </c>
       <c r="N22">
-        <v>12.50953495606603</v>
+        <v>20.46593838701206</v>
       </c>
       <c r="O22">
-        <v>16.37681966800576</v>
+        <v>26.0072353729112</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.58363329681377</v>
+        <v>14.00258276623135</v>
       </c>
       <c r="C23">
-        <v>7.082025937577888</v>
+        <v>9.591536442213508</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>7.995317654100393</v>
+        <v>12.64311464241388</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154458858</v>
       </c>
       <c r="G23">
-        <v>2.094253853413745</v>
+        <v>3.665696247560807</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>12.90466785401785</v>
+        <v>10.12627022150058</v>
       </c>
       <c r="L23">
-        <v>6.663103318745726</v>
+        <v>9.943346884906994</v>
       </c>
       <c r="M23">
-        <v>11.28915253024183</v>
+        <v>14.63592857857082</v>
       </c>
       <c r="N23">
-        <v>12.59903158163854</v>
+        <v>20.48987779906089</v>
       </c>
       <c r="O23">
-        <v>16.38781092747387</v>
+        <v>26.03653020092765</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.32565470792632</v>
+        <v>13.66489063954184</v>
       </c>
       <c r="C24">
-        <v>7.059896283444955</v>
+        <v>9.59116131663524</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>7.932080740364625</v>
+        <v>12.67276317798461</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>2.101365438842231</v>
+        <v>3.66812546890141</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>12.02108173976224</v>
+        <v>9.881055722562598</v>
       </c>
       <c r="L24">
-        <v>6.493684835765627</v>
+        <v>9.941719635676883</v>
       </c>
       <c r="M24">
-        <v>10.77550323650765</v>
+        <v>14.57054162395091</v>
       </c>
       <c r="N24">
-        <v>12.94159948784575</v>
+        <v>20.58363069314887</v>
       </c>
       <c r="O24">
-        <v>16.45896681263825</v>
+        <v>26.15570976249457</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.95594353017013</v>
+        <v>13.29951078482256</v>
       </c>
       <c r="C25">
-        <v>7.039197124700047</v>
+        <v>9.591989958028929</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>7.879943868142993</v>
+        <v>12.71127034798656</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295695</v>
       </c>
       <c r="G25">
-        <v>2.109305259236022</v>
+        <v>3.67094310508408</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>10.99326042934093</v>
+        <v>9.6146612361987</v>
       </c>
       <c r="L25">
-        <v>6.317544507792906</v>
+        <v>9.944812377711559</v>
       </c>
       <c r="M25">
-        <v>10.20963021061937</v>
+        <v>14.5072344671031</v>
       </c>
       <c r="N25">
-        <v>13.31980540489233</v>
+        <v>20.69139354216528</v>
       </c>
       <c r="O25">
-        <v>16.59341868677735</v>
+        <v>26.30180621392222</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_5/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_5/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.03148819180643</v>
+        <v>12.90157216012913</v>
       </c>
       <c r="C2">
-        <v>9.593674530799468</v>
+        <v>7.02658988365032</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>12.74524976387822</v>
+        <v>7.854759598065048</v>
       </c>
       <c r="F2">
-        <v>16.86991607391233</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>3.673189197126387</v>
+        <v>2.115402917449481</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>9.418277300808496</v>
+        <v>10.17199216740793</v>
       </c>
       <c r="L2">
-        <v>9.951288756319935</v>
+        <v>6.194036546563337</v>
       </c>
       <c r="M2">
-        <v>14.46702459954551</v>
+        <v>9.785657956939032</v>
       </c>
       <c r="N2">
-        <v>20.77650444022321</v>
+        <v>13.60672017123507</v>
       </c>
       <c r="O2">
-        <v>26.42444030374187</v>
+        <v>16.73686422157065</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.85150573726562</v>
+        <v>12.14293981510201</v>
       </c>
       <c r="C3">
-        <v>9.595493443088982</v>
+        <v>7.019646611091083</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>12.77179413609868</v>
+        <v>7.845595483485737</v>
       </c>
       <c r="F3">
-        <v>15.89584955866808</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>3.674819255093851</v>
+        <v>2.119701818095079</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.285767747287739</v>
+        <v>9.575308643899934</v>
       </c>
       <c r="L3">
-        <v>9.958310512857667</v>
+        <v>6.114439042958727</v>
       </c>
       <c r="M3">
-        <v>14.44385634529189</v>
+        <v>9.495462409707434</v>
       </c>
       <c r="N3">
-        <v>20.83781109935131</v>
+        <v>13.80688255321313</v>
       </c>
       <c r="O3">
-        <v>26.51693559186113</v>
+        <v>16.85934338156968</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.74216574062311</v>
+        <v>11.65617951129431</v>
       </c>
       <c r="C4">
-        <v>9.596946724846834</v>
+        <v>7.016160453225424</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>12.78982880706979</v>
+        <v>7.84375080614697</v>
       </c>
       <c r="F4">
-        <v>15.26997757108491</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>3.675873612738297</v>
+        <v>2.122426420596063</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.204943792927869</v>
+        <v>9.189295818605514</v>
       </c>
       <c r="L4">
-        <v>9.963924471670028</v>
+        <v>6.067668514286482</v>
       </c>
       <c r="M4">
-        <v>14.43167193604012</v>
+        <v>9.316512467374483</v>
       </c>
       <c r="N4">
-        <v>20.87725191444903</v>
+        <v>13.9327426453849</v>
       </c>
       <c r="O4">
-        <v>26.57835323992428</v>
+        <v>16.94623259580999</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.6979565348799</v>
+        <v>11.45270472605196</v>
       </c>
       <c r="C5">
-        <v>9.597623932879811</v>
+        <v>7.014933531534531</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12.79761497541842</v>
+        <v>7.843932439309556</v>
       </c>
       <c r="F5">
-        <v>15.00819731993403</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>3.676316764708715</v>
+        <v>2.123558517921816</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.172180848905978</v>
+        <v>9.027085561620174</v>
       </c>
       <c r="L5">
-        <v>9.966540352302111</v>
+        <v>6.049149036787669</v>
       </c>
       <c r="M5">
-        <v>14.42722395710906</v>
+        <v>9.243500506317286</v>
       </c>
       <c r="N5">
-        <v>20.89377786695563</v>
+        <v>13.98479513538255</v>
       </c>
       <c r="O5">
-        <v>26.60454380150546</v>
+        <v>16.98446857157258</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.69063818917687</v>
+        <v>11.41861411859296</v>
       </c>
       <c r="C6">
-        <v>9.597741526611621</v>
+        <v>7.014741454641092</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12.79893425786183</v>
+        <v>7.844018443235007</v>
       </c>
       <c r="F6">
-        <v>14.96433081551593</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>3.676391165881206</v>
+        <v>2.123747830188928</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.166752182994317</v>
+        <v>8.999855541474732</v>
       </c>
       <c r="L6">
-        <v>9.966994552982312</v>
+        <v>6.046106803322006</v>
       </c>
       <c r="M6">
-        <v>14.42651672725979</v>
+        <v>9.231374765745928</v>
       </c>
       <c r="N6">
-        <v>20.89654941758282</v>
+        <v>13.99348507332374</v>
       </c>
       <c r="O6">
-        <v>26.60896290929208</v>
+        <v>16.99098527432566</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.7415680414088</v>
+        <v>11.65345586367322</v>
       </c>
       <c r="C7">
-        <v>9.59695551331146</v>
+        <v>7.016143124332253</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>12.78993204473043</v>
+        <v>7.843749500379933</v>
       </c>
       <c r="F7">
-        <v>15.26647399323137</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>3.675879534554796</v>
+        <v>2.122441599658052</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.20450118743644</v>
+        <v>9.187128008644157</v>
       </c>
       <c r="L7">
-        <v>9.96395842094179</v>
+        <v>6.067416554220283</v>
       </c>
       <c r="M7">
-        <v>14.43160984953768</v>
+        <v>9.31552801755015</v>
       </c>
       <c r="N7">
-        <v>20.87747295128389</v>
+        <v>13.93344152719881</v>
       </c>
       <c r="O7">
-        <v>26.57870174948258</v>
+        <v>16.94673695241277</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.96921961848429</v>
+        <v>12.6444267527308</v>
       </c>
       <c r="C8">
-        <v>9.594232085279977</v>
+        <v>7.024033527540362</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>12.75404206619561</v>
+        <v>7.850804362527144</v>
       </c>
       <c r="F8">
-        <v>16.53996406344768</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>3.673740162732551</v>
+        <v>2.116867776659372</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>9.372499455456078</v>
+        <v>9.970349543891674</v>
       </c>
       <c r="L8">
-        <v>9.953439888942315</v>
+        <v>6.166161940239154</v>
       </c>
       <c r="M8">
-        <v>14.45861509150914</v>
+        <v>9.685819089246325</v>
       </c>
       <c r="N8">
-        <v>20.79727053445455</v>
+        <v>13.67513376537512</v>
       </c>
       <c r="O8">
-        <v>26.45537232969447</v>
+        <v>16.77660147210254</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.42256849938506</v>
+        <v>14.41636198000001</v>
       </c>
       <c r="C9">
-        <v>9.591544854090651</v>
+        <v>7.045754668873301</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>12.69742596350339</v>
+        <v>7.895412404881584</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>3.669967460214702</v>
+        <v>2.106592948201038</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>9.704529013272479</v>
+        <v>11.34949948691659</v>
       </c>
       <c r="L9">
-        <v>9.943120169614339</v>
+        <v>6.375950953090276</v>
       </c>
       <c r="M9">
-        <v>14.52757730701004</v>
+        <v>10.40159017566015</v>
       </c>
       <c r="N9">
-        <v>20.65420175177243</v>
+        <v>13.19115687666223</v>
       </c>
       <c r="O9">
-        <v>26.25025178827579</v>
+        <v>16.54088561545547</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.75672673170224</v>
+        <v>15.67589728999387</v>
       </c>
       <c r="C10">
-        <v>9.591166727569243</v>
+        <v>7.065648502134168</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>12.66420294012902</v>
+        <v>7.947951894525845</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>3.667450672999058</v>
+        <v>2.099415030227134</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>9.947824651618161</v>
+        <v>12.26676832132335</v>
       </c>
       <c r="L10">
-        <v>9.941781306677495</v>
+        <v>6.539172781745949</v>
       </c>
       <c r="M10">
-        <v>14.58773019552329</v>
+        <v>10.91596811062414</v>
       </c>
       <c r="N10">
-        <v>20.55766448206705</v>
+        <v>12.84798198728468</v>
       </c>
       <c r="O10">
-        <v>26.12198001054916</v>
+        <v>16.43486242932323</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.90832831704942</v>
+        <v>16.2403982953072</v>
       </c>
       <c r="C11">
-        <v>9.591336743720575</v>
+        <v>7.075583933901086</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>12.6509026860457</v>
+        <v>7.976347629416053</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>3.666360541002083</v>
+        <v>2.096223522876249</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>10.05790791418587</v>
+        <v>12.66328132731828</v>
       </c>
       <c r="L11">
-        <v>9.942517878757858</v>
+        <v>6.615232903341166</v>
       </c>
       <c r="M11">
-        <v>14.61709130505821</v>
+        <v>11.14654309055922</v>
       </c>
       <c r="N11">
-        <v>20.5155908662139</v>
+        <v>12.69424061092239</v>
       </c>
       <c r="O11">
-        <v>26.06850500996562</v>
+        <v>16.40291629277242</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.96562444674974</v>
+        <v>16.44970921855838</v>
       </c>
       <c r="C12">
-        <v>9.591449913287956</v>
+        <v>7.079476305797535</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>12.64612654230871</v>
+        <v>7.987762262227187</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>3.665955569920593</v>
+        <v>2.095025014567097</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>10.09947138362029</v>
+        <v>12.8104581176437</v>
       </c>
       <c r="L12">
-        <v>9.942989317790301</v>
+        <v>6.644280923506296</v>
       </c>
       <c r="M12">
-        <v>14.62849088113044</v>
+        <v>11.23329781611232</v>
       </c>
       <c r="N12">
-        <v>20.4999221564455</v>
+        <v>12.63633640577372</v>
       </c>
       <c r="O12">
-        <v>26.04895743976089</v>
+        <v>16.39330769621825</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.95329051724809</v>
+        <v>16.40482766448686</v>
       </c>
       <c r="C13">
-        <v>9.591423376650399</v>
+        <v>7.078632184934253</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>12.64714359591745</v>
+        <v>7.985274245577894</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>3.666042439669529</v>
+        <v>2.095282697242754</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>10.09052598437046</v>
+        <v>12.77889300981804</v>
       </c>
       <c r="L13">
-        <v>9.942879239268477</v>
+        <v>6.638014212105182</v>
       </c>
       <c r="M13">
-        <v>14.62602337296629</v>
+        <v>11.21463948084475</v>
       </c>
       <c r="N13">
-        <v>20.50328498588122</v>
+        <v>12.64879357266794</v>
       </c>
       <c r="O13">
-        <v>26.05313610974887</v>
+        <v>16.39526400354399</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.91304465037991</v>
+        <v>16.2577074079117</v>
       </c>
       <c r="C14">
-        <v>9.591345078733683</v>
+        <v>7.075901539238208</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>12.65050453362105</v>
+        <v>7.977273369131139</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>3.666327066909591</v>
+        <v>2.096124722861886</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>10.06133003398145</v>
+        <v>12.67544917556957</v>
       </c>
       <c r="L14">
-        <v>9.942552811944552</v>
+        <v>6.617617859057052</v>
       </c>
       <c r="M14">
-        <v>14.61802355577238</v>
+        <v>11.15369201408051</v>
       </c>
       <c r="N14">
-        <v>20.51429651467194</v>
+        <v>12.68947065541311</v>
       </c>
       <c r="O14">
-        <v>26.06688273960858</v>
+        <v>16.40207505179927</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.88837674130752</v>
+        <v>16.16701346606191</v>
       </c>
       <c r="C15">
-        <v>9.591303460887962</v>
+        <v>7.074245958743791</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>12.65259710266145</v>
+        <v>7.97245923077881</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309123407</v>
       </c>
       <c r="G15">
-        <v>3.666502428984089</v>
+        <v>2.096641778992248</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>10.04342960785456</v>
+        <v>12.61169993451579</v>
       </c>
       <c r="L15">
-        <v>9.942377906447641</v>
+        <v>6.605156076751904</v>
       </c>
       <c r="M15">
-        <v>14.61315986804988</v>
+        <v>11.11628527182909</v>
       </c>
       <c r="N15">
-        <v>20.52107569505816</v>
+        <v>12.71442666175074</v>
       </c>
       <c r="O15">
-        <v>26.07539443140935</v>
+        <v>16.40657556145026</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.74680639205192</v>
+        <v>15.63838004711179</v>
       </c>
       <c r="C16">
-        <v>9.591162465377842</v>
+        <v>7.065017243728884</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>12.66510859793769</v>
+        <v>7.946187950820358</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028808</v>
       </c>
       <c r="G16">
-        <v>3.667523014556783</v>
+        <v>2.099625039831268</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>9.940615292337146</v>
+        <v>12.24043837878583</v>
       </c>
       <c r="L16">
-        <v>9.941760164983641</v>
+        <v>6.5342372400164</v>
       </c>
       <c r="M16">
-        <v>14.58585105794499</v>
+        <v>10.90082474931006</v>
       </c>
       <c r="N16">
-        <v>20.56045105027766</v>
+        <v>12.85807481346724</v>
       </c>
       <c r="O16">
-        <v>26.12557294218729</v>
+        <v>16.43729033150199</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.65981444716912</v>
+        <v>15.30609791692897</v>
       </c>
       <c r="C17">
-        <v>9.591163290456164</v>
+        <v>7.059584394953192</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>12.67324813061149</v>
+        <v>7.931233851302455</v>
       </c>
       <c r="F17">
-        <v>20.20408069597325</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>3.668163111353281</v>
+        <v>2.101473677235715</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>9.877363138338938</v>
+        <v>12.00737102103922</v>
       </c>
       <c r="L17">
-        <v>9.941725171424681</v>
+        <v>6.491183903549939</v>
       </c>
       <c r="M17">
-        <v>14.5696053256777</v>
+        <v>10.76772052515568</v>
       </c>
       <c r="N17">
-        <v>20.58507741225185</v>
+        <v>12.94678703795991</v>
       </c>
       <c r="O17">
-        <v>26.15760554427372</v>
+        <v>16.46040680790721</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.60974361204027</v>
+        <v>15.11202950175954</v>
       </c>
       <c r="C18">
-        <v>9.591195982093186</v>
+        <v>7.056542749245788</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>12.67810045132686</v>
+        <v>7.923054885659574</v>
       </c>
       <c r="F18">
-        <v>19.95656407809801</v>
+        <v>36.31710943239619</v>
       </c>
       <c r="G18">
-        <v>3.668536435247023</v>
+        <v>2.102543942962185</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>9.840928505700381</v>
+        <v>11.87136207503021</v>
       </c>
       <c r="L18">
-        <v>9.941831764518732</v>
+        <v>6.466591958506239</v>
       </c>
       <c r="M18">
-        <v>14.56044958169398</v>
+        <v>10.69084426299408</v>
       </c>
       <c r="N18">
-        <v>20.59941526071522</v>
+        <v>12.99803677410921</v>
       </c>
       <c r="O18">
-        <v>26.17648878599985</v>
+        <v>16.47522645773542</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.59278606419348</v>
+        <v>15.0458134662356</v>
       </c>
       <c r="C19">
-        <v>9.591212596224754</v>
+        <v>7.055527109340007</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>12.67977268758647</v>
+        <v>7.920357669348761</v>
       </c>
       <c r="F19">
-        <v>19.87204792380568</v>
+        <v>36.15172494150059</v>
       </c>
       <c r="G19">
-        <v>3.668663723186236</v>
+        <v>2.102907531665372</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>9.828584306938454</v>
+        <v>11.82497580725468</v>
       </c>
       <c r="L19">
-        <v>9.941889648238677</v>
+        <v>6.45829539928174</v>
       </c>
       <c r="M19">
-        <v>14.55738213649496</v>
+        <v>10.66476281994339</v>
       </c>
       <c r="N19">
-        <v>20.60429963027468</v>
+        <v>13.01542845072187</v>
       </c>
       <c r="O19">
-        <v>26.18296111870881</v>
+        <v>16.48050142270524</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.6690789402896</v>
+        <v>15.34177474510226</v>
       </c>
       <c r="C20">
-        <v>9.591159871136906</v>
+        <v>7.060154102913915</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>12.67236400144457</v>
+        <v>7.932781927490902</v>
       </c>
       <c r="F20">
-        <v>20.24955283636154</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>3.668094438482316</v>
+        <v>2.101276168353526</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>9.884102267123374</v>
+        <v>12.03238368829349</v>
       </c>
       <c r="L20">
-        <v>9.941715788352539</v>
+        <v>6.495749392985971</v>
       </c>
       <c r="M20">
-        <v>14.57131525872624</v>
+        <v>10.78192314872895</v>
       </c>
       <c r="N20">
-        <v>20.58243795457293</v>
+        <v>12.93732039079746</v>
       </c>
       <c r="O20">
-        <v>26.15414811348892</v>
+        <v>16.45778727561863</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.92486929625092</v>
+        <v>16.30104067375619</v>
       </c>
       <c r="C21">
-        <v>9.591366755795235</v>
+        <v>7.076700044217005</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>12.64951028116412</v>
+        <v>7.979605340411597</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>3.666243252557307</v>
+        <v>2.095877131504273</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>10.06990921325328</v>
+        <v>12.70591374168386</v>
       </c>
       <c r="L21">
-        <v>9.942643474972792</v>
+        <v>6.623602207958667</v>
       </c>
       <c r="M21">
-        <v>14.62036571492911</v>
+        <v>11.1716094299403</v>
       </c>
       <c r="N21">
-        <v>20.5110550155152</v>
+        <v>12.67751449911892</v>
       </c>
       <c r="O21">
-        <v>26.06282595418619</v>
+        <v>16.40000574443998</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.09136615120563</v>
+        <v>16.90204195016712</v>
       </c>
       <c r="C22">
-        <v>9.591786156386233</v>
+        <v>7.08827316994069</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>12.63609153044425</v>
+        <v>8.014071238018913</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>3.665079065807187</v>
+        <v>2.092406822170595</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>10.19061334679406</v>
+        <v>13.12877783425962</v>
       </c>
       <c r="L22">
-        <v>9.944371387966065</v>
+        <v>6.70858714452558</v>
       </c>
       <c r="M22">
-        <v>14.65405884534896</v>
+        <v>11.42300821489564</v>
       </c>
       <c r="N22">
-        <v>20.46593838701206</v>
+        <v>12.50953495606599</v>
       </c>
       <c r="O22">
-        <v>26.0072353729112</v>
+        <v>16.37681966800567</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.00258276623135</v>
+        <v>16.58363329681379</v>
       </c>
       <c r="C23">
-        <v>9.591536442213508</v>
+        <v>7.082025937577885</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>12.64311464241388</v>
+        <v>7.995317654100312</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>3.665696247560807</v>
+        <v>2.094253853413745</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>10.12627022150058</v>
+        <v>12.90466785401792</v>
       </c>
       <c r="L23">
-        <v>9.943346884906994</v>
+        <v>6.663103318745723</v>
       </c>
       <c r="M23">
-        <v>14.63592857857082</v>
+        <v>11.28915253024179</v>
       </c>
       <c r="N23">
-        <v>20.48987779906089</v>
+        <v>12.59903158163844</v>
       </c>
       <c r="O23">
-        <v>26.03653020092765</v>
+        <v>16.38781092747374</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.66489063954184</v>
+        <v>15.32565470792632</v>
       </c>
       <c r="C24">
-        <v>9.59116131663524</v>
+        <v>7.059896283445105</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>12.67276317798461</v>
+        <v>7.932080740364619</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>3.66812546890141</v>
+        <v>2.101365438842363</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>9.881055722562598</v>
+        <v>12.02108173976234</v>
       </c>
       <c r="L24">
-        <v>9.941719635676883</v>
+        <v>6.493684835765563</v>
       </c>
       <c r="M24">
-        <v>14.57054162395091</v>
+        <v>10.77550323650761</v>
       </c>
       <c r="N24">
-        <v>20.58363069314887</v>
+        <v>12.94159948784568</v>
       </c>
       <c r="O24">
-        <v>26.15570976249457</v>
+        <v>16.45896681263807</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.29951078482256</v>
+        <v>13.95594353017013</v>
       </c>
       <c r="C25">
-        <v>9.591989958028929</v>
+        <v>7.039197124700176</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>12.71127034798656</v>
+        <v>7.879943868142999</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>3.67094310508408</v>
+        <v>2.109305259235888</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>9.6146612361987</v>
+        <v>10.99326042934098</v>
       </c>
       <c r="L25">
-        <v>9.944812377711559</v>
+        <v>6.317544507792869</v>
       </c>
       <c r="M25">
-        <v>14.5072344671031</v>
+        <v>10.20963021061936</v>
       </c>
       <c r="N25">
-        <v>20.69139354216528</v>
+        <v>13.31980540489233</v>
       </c>
       <c r="O25">
-        <v>26.30180621392222</v>
+        <v>16.59341868677732</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_5/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_5/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.90157216012913</v>
+        <v>12.94410174852052</v>
       </c>
       <c r="C2">
-        <v>7.02658988365032</v>
+        <v>8.625282018066297</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>7.854759598065048</v>
+        <v>23.46605093475319</v>
       </c>
       <c r="F2">
-        <v>30.27884324296195</v>
+        <v>37.85514348230171</v>
       </c>
       <c r="G2">
-        <v>2.115402917449481</v>
+        <v>26.97750556684862</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.583776599331005</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.733015403018701</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>10.07853618044668</v>
       </c>
       <c r="K2">
-        <v>10.17199216740793</v>
+        <v>15.12731264773262</v>
       </c>
       <c r="L2">
-        <v>6.194036546563337</v>
+        <v>5.669874195811247</v>
       </c>
       <c r="M2">
-        <v>9.785657956939032</v>
+        <v>11.88005852308004</v>
       </c>
       <c r="N2">
-        <v>13.60672017123507</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>16.73686422157065</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>12.7295168174123</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.14293981510201</v>
+        <v>12.08789573029418</v>
       </c>
       <c r="C3">
-        <v>7.019646611091083</v>
+        <v>8.068727487080025</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>7.845595483485737</v>
+        <v>22.03484460863586</v>
       </c>
       <c r="F3">
-        <v>28.1630198432675</v>
+        <v>36.15495844382659</v>
       </c>
       <c r="G3">
-        <v>2.119701818095079</v>
+        <v>26.51002514241123</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.813292063508963</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.89316938763338</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>10.08607438211393</v>
       </c>
       <c r="K3">
-        <v>9.575308643899934</v>
+        <v>15.17663238079211</v>
       </c>
       <c r="L3">
-        <v>6.114439042958727</v>
+        <v>5.583588627644715</v>
       </c>
       <c r="M3">
-        <v>9.495462409707434</v>
+        <v>11.14296185897699</v>
       </c>
       <c r="N3">
-        <v>13.80688255321313</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>16.85934338156968</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>12.88684319762475</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.65617951129431</v>
+        <v>11.5280072392874</v>
       </c>
       <c r="C4">
-        <v>7.016160453225424</v>
+        <v>7.711573242453674</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>7.84375080614697</v>
+        <v>21.11090163908883</v>
       </c>
       <c r="F4">
-        <v>26.79314218379246</v>
+        <v>35.07714869829142</v>
       </c>
       <c r="G4">
-        <v>2.122426420596063</v>
+        <v>26.23052265743085</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1.989170307470656</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.995672631384968</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>10.09365973338666</v>
       </c>
       <c r="K4">
-        <v>9.189295818605514</v>
+        <v>15.21068765672576</v>
       </c>
       <c r="L4">
-        <v>6.067668514286482</v>
+        <v>5.52863069721583</v>
       </c>
       <c r="M4">
-        <v>9.316512467374483</v>
+        <v>10.66445542383489</v>
       </c>
       <c r="N4">
-        <v>13.9327426453849</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>16.94623259580999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>12.98494753306042</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.45270472605196</v>
+        <v>11.2851866550388</v>
       </c>
       <c r="C5">
-        <v>7.014933531534531</v>
+        <v>7.569735740004346</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7.843932439309556</v>
+        <v>20.72942583376391</v>
       </c>
       <c r="F5">
-        <v>26.2169480385347</v>
+        <v>34.62379223706277</v>
       </c>
       <c r="G5">
-        <v>2.123558517921816</v>
+        <v>26.10152151253018</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.062558818765321</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.041442947246869</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>10.09458519385552</v>
       </c>
       <c r="K5">
-        <v>9.027085561620174</v>
+        <v>15.21914345234356</v>
       </c>
       <c r="L5">
-        <v>6.049149036787669</v>
+        <v>5.505099329284608</v>
       </c>
       <c r="M5">
-        <v>9.243500506317286</v>
+        <v>10.46177216805573</v>
       </c>
       <c r="N5">
-        <v>13.98479513538255</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>16.98446857157258</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>13.02474019001128</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.41861411859296</v>
+        <v>11.23697326521559</v>
       </c>
       <c r="C6">
-        <v>7.014741454641092</v>
+        <v>7.555231164949913</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7.844018443235007</v>
+        <v>20.67312184780758</v>
       </c>
       <c r="F6">
-        <v>26.12018204701072</v>
+        <v>34.54058279549903</v>
       </c>
       <c r="G6">
-        <v>2.123747830188928</v>
+        <v>26.05940374572068</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2.075033010813476</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.052888851808901</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>10.09125607798742</v>
       </c>
       <c r="K6">
-        <v>8.999855541474732</v>
+        <v>15.21286452154346</v>
       </c>
       <c r="L6">
-        <v>6.046106803322006</v>
+        <v>5.500386572293362</v>
       </c>
       <c r="M6">
-        <v>9.231374765745928</v>
+        <v>10.42627637132695</v>
       </c>
       <c r="N6">
-        <v>13.99348507332374</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>16.99098527432566</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>13.03067333418636</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.65345586367322</v>
+        <v>11.50512022527636</v>
       </c>
       <c r="C7">
-        <v>7.016143124332253</v>
+        <v>7.734424064978065</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7.843749500379933</v>
+        <v>21.1263941071619</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>35.05103036534927</v>
       </c>
       <c r="G7">
-        <v>2.122441599658052</v>
+        <v>26.17225932134453</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1.990673561572962</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.006309918874477</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>10.08405764108072</v>
       </c>
       <c r="K7">
-        <v>9.187128008644157</v>
+        <v>15.18967563897925</v>
       </c>
       <c r="L7">
-        <v>6.067416554220283</v>
+        <v>5.526217277850913</v>
       </c>
       <c r="M7">
-        <v>9.31552801755015</v>
+        <v>10.65787743814639</v>
       </c>
       <c r="N7">
-        <v>13.93344152719881</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>16.94673695241277</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>12.9836427252595</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.6444267527308</v>
+        <v>12.63196383848115</v>
       </c>
       <c r="C8">
-        <v>7.024033527540362</v>
+        <v>8.466816310834787</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>7.850804362527144</v>
+        <v>23.00719840756723</v>
       </c>
       <c r="F8">
-        <v>29.56389055882491</v>
+        <v>37.25119948509381</v>
       </c>
       <c r="G8">
-        <v>2.116867776659372</v>
+        <v>26.74168658425861</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.631522880761032</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.80029757135078</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>10.06787324227835</v>
       </c>
       <c r="K8">
-        <v>9.970349543891674</v>
+        <v>15.11564733023979</v>
       </c>
       <c r="L8">
-        <v>6.166161940239154</v>
+        <v>5.63783608434405</v>
       </c>
       <c r="M8">
-        <v>9.685819089246325</v>
+        <v>11.62653034000045</v>
       </c>
       <c r="N8">
-        <v>13.67513376537512</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>16.77660147210254</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>12.78133259165647</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.41636198000001</v>
+        <v>14.60362592207533</v>
       </c>
       <c r="C9">
-        <v>7.045754668873301</v>
+        <v>9.741667125256427</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>7.895412404881584</v>
+        <v>26.30165605651128</v>
       </c>
       <c r="F9">
-        <v>34.45877994146107</v>
+        <v>41.31239877224656</v>
       </c>
       <c r="G9">
-        <v>2.106592948201038</v>
+        <v>28.01507321631338</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.133404459940478</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.543182357453656</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>10.07785451123481</v>
       </c>
       <c r="K9">
-        <v>11.34949948691659</v>
+        <v>15.03989274698639</v>
       </c>
       <c r="L9">
-        <v>6.375950953090276</v>
+        <v>5.844838254177816</v>
       </c>
       <c r="M9">
-        <v>10.40159017566015</v>
+        <v>13.32643048719648</v>
       </c>
       <c r="N9">
-        <v>13.19115687666223</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>16.54088561545547</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>12.39864082233907</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.67589728999387</v>
+        <v>15.86076924325808</v>
       </c>
       <c r="C10">
-        <v>7.065648502134168</v>
+        <v>10.5752510167201</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>7.947951894525845</v>
+        <v>28.06791179082143</v>
       </c>
       <c r="F10">
-        <v>37.72874519847221</v>
+        <v>43.68798986724035</v>
       </c>
       <c r="G10">
-        <v>2.099415030227134</v>
+        <v>28.79818555473874</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.555236096082343</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.801017306204166</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>10.06964979428927</v>
       </c>
       <c r="K10">
-        <v>12.26676832132335</v>
+        <v>14.95171501502375</v>
       </c>
       <c r="L10">
-        <v>6.539172781745949</v>
+        <v>5.945939291157741</v>
       </c>
       <c r="M10">
-        <v>10.91596811062414</v>
+        <v>14.42116084272365</v>
       </c>
       <c r="N10">
-        <v>12.84798198728468</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>16.43486242932323</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>12.12297294194186</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.2403982953072</v>
+        <v>16.18710615011149</v>
       </c>
       <c r="C11">
-        <v>7.075583933901086</v>
+        <v>10.6324651542178</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7.976347629416053</v>
+        <v>25.08897543347926</v>
       </c>
       <c r="F11">
-        <v>39.1480572223286</v>
+        <v>41.21191441557207</v>
       </c>
       <c r="G11">
-        <v>2.096223522876249</v>
+        <v>27.68902218877998</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3.251106281965471</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.880597456121926</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>9.814233693875458</v>
       </c>
       <c r="K11">
-        <v>12.66328132731828</v>
+        <v>14.50119531588038</v>
       </c>
       <c r="L11">
-        <v>6.615232903341166</v>
+        <v>5.700623283728945</v>
       </c>
       <c r="M11">
-        <v>11.14654309055922</v>
+        <v>14.65319232423536</v>
       </c>
       <c r="N11">
-        <v>12.69424061092239</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>16.40291629277242</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>12.00749881017334</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.44970921855838</v>
+        <v>16.23044602455168</v>
       </c>
       <c r="C12">
-        <v>7.079476305797535</v>
+        <v>10.48146811769733</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>7.987762262227187</v>
+        <v>22.16938596716803</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>38.62507382201656</v>
       </c>
       <c r="G12">
-        <v>2.095025014567097</v>
+        <v>26.64557398083469</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.377139620785541</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.891504143396519</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>9.610955214657919</v>
       </c>
       <c r="K12">
-        <v>12.8104581176437</v>
+        <v>14.16923183740727</v>
       </c>
       <c r="L12">
-        <v>6.644280923506296</v>
+        <v>5.571252309780255</v>
       </c>
       <c r="M12">
-        <v>11.23329781611232</v>
+        <v>14.63083191032402</v>
       </c>
       <c r="N12">
-        <v>12.63633640577372</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>16.39330769621825</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>11.97844096267531</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.40482766448686</v>
+        <v>16.03792886400773</v>
       </c>
       <c r="C13">
-        <v>7.078632184934253</v>
+        <v>10.18537341999284</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>7.985274245577894</v>
+        <v>19.05997350823673</v>
       </c>
       <c r="F13">
-        <v>39.56266403258223</v>
+        <v>35.7099757637644</v>
       </c>
       <c r="G13">
-        <v>2.095282697242754</v>
+        <v>25.49396240162751</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.620502502063527</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.855185078225436</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>9.420668563393015</v>
       </c>
       <c r="K13">
-        <v>12.77889300981804</v>
+        <v>13.87643568559036</v>
       </c>
       <c r="L13">
-        <v>6.638014212105182</v>
+        <v>5.523712969272236</v>
       </c>
       <c r="M13">
-        <v>11.21463948084475</v>
+        <v>14.40674087396493</v>
       </c>
       <c r="N13">
-        <v>12.64879357266794</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>16.39526400354399</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>12.00973182313899</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.2577074079117</v>
+        <v>15.78954165101248</v>
       </c>
       <c r="C14">
-        <v>7.075901539238208</v>
+        <v>9.914549649912146</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>7.977273369131139</v>
+        <v>16.76906163560047</v>
       </c>
       <c r="F14">
-        <v>39.19167637503946</v>
+        <v>33.48992378629953</v>
       </c>
       <c r="G14">
-        <v>2.096124722861886</v>
+        <v>24.62139699053408</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.531793086420473</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.809810317255152</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>9.291740866415219</v>
       </c>
       <c r="K14">
-        <v>12.67544917556957</v>
+        <v>13.68594338078305</v>
       </c>
       <c r="L14">
-        <v>6.617617859057052</v>
+        <v>5.541126140915741</v>
       </c>
       <c r="M14">
-        <v>11.15369201408051</v>
+        <v>14.15509518973997</v>
       </c>
       <c r="N14">
-        <v>12.68947065541311</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>16.40207505179927</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>12.05895280418272</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.16701346606191</v>
+        <v>15.67152190477429</v>
       </c>
       <c r="C15">
-        <v>7.074245958743791</v>
+        <v>9.823567236666507</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>7.97245923077881</v>
+        <v>16.16933658172843</v>
       </c>
       <c r="F15">
-        <v>38.96319309123407</v>
+        <v>32.87083556830991</v>
       </c>
       <c r="G15">
-        <v>2.096641778992248</v>
+        <v>24.36930839642099</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.739175289264653</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.789995113607189</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>9.260634416358995</v>
       </c>
       <c r="K15">
-        <v>12.61169993451579</v>
+        <v>13.64174383743121</v>
       </c>
       <c r="L15">
-        <v>6.605156076751904</v>
+        <v>5.549301596769065</v>
       </c>
       <c r="M15">
-        <v>11.11628527182909</v>
+        <v>14.04836643670119</v>
       </c>
       <c r="N15">
-        <v>12.71442666175074</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>16.40657556145026</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>12.08273323913231</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.63838004711179</v>
+        <v>15.17384951907036</v>
       </c>
       <c r="C16">
-        <v>7.065017243728884</v>
+        <v>9.530393614088171</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>7.946187950820358</v>
+        <v>15.83563448236096</v>
       </c>
       <c r="F16">
-        <v>37.63463543028808</v>
+        <v>32.29170306538025</v>
       </c>
       <c r="G16">
-        <v>2.099625039831268</v>
+        <v>24.2001779557805</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.461410088252117</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.690959914887658</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>9.296639131551009</v>
       </c>
       <c r="K16">
-        <v>12.24043837878583</v>
+        <v>13.72788686782398</v>
       </c>
       <c r="L16">
-        <v>6.5342372400164</v>
+        <v>5.510724647426451</v>
       </c>
       <c r="M16">
-        <v>10.90082474931006</v>
+        <v>13.62805358213546</v>
       </c>
       <c r="N16">
-        <v>12.85807481346724</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>16.43729033150199</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>12.18645253584437</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.30609791692897</v>
+        <v>14.92143686718229</v>
       </c>
       <c r="C17">
-        <v>7.059584394953192</v>
+        <v>9.453356471502195</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>7.931233851302455</v>
+        <v>16.85253586670915</v>
       </c>
       <c r="F17">
-        <v>36.80228778268388</v>
+        <v>33.066321466595</v>
       </c>
       <c r="G17">
-        <v>2.101473677235715</v>
+        <v>24.54237804565691</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.711664147790454</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.639007322037728</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>9.392627451316093</v>
       </c>
       <c r="K17">
-        <v>12.00737102103922</v>
+        <v>13.89374802745066</v>
       </c>
       <c r="L17">
-        <v>6.491183903549939</v>
+        <v>5.462772428186629</v>
       </c>
       <c r="M17">
-        <v>10.76772052515568</v>
+        <v>13.43886397252552</v>
       </c>
       <c r="N17">
-        <v>12.94678703795991</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>16.46040680790721</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>12.24090951658413</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.11202950175954</v>
+        <v>14.87320838323652</v>
       </c>
       <c r="C18">
-        <v>7.056542749245788</v>
+        <v>9.542589720667669</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>7.923054885659574</v>
+        <v>19.16233576744084</v>
       </c>
       <c r="F18">
-        <v>36.31710943239619</v>
+        <v>35.11542728415961</v>
       </c>
       <c r="G18">
-        <v>2.102543942962185</v>
+        <v>25.39783286810277</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.51174788532476</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.618761372958738</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>9.557108200767125</v>
       </c>
       <c r="K18">
-        <v>11.87136207503021</v>
+        <v>14.16274175931877</v>
       </c>
       <c r="L18">
-        <v>6.466591958506239</v>
+        <v>5.453061928997265</v>
       </c>
       <c r="M18">
-        <v>10.69084426299408</v>
+        <v>13.4368231535615</v>
       </c>
       <c r="N18">
-        <v>12.99803677410921</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>16.47522645773542</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>12.26259664159032</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.0458134662356</v>
+        <v>14.96539146644004</v>
       </c>
       <c r="C19">
-        <v>7.055527109340007</v>
+        <v>9.79596442478649</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>7.920357669348761</v>
+        <v>22.35486146810661</v>
       </c>
       <c r="F19">
-        <v>36.15172494150059</v>
+        <v>37.99059767491816</v>
       </c>
       <c r="G19">
-        <v>2.102907531665372</v>
+        <v>26.50348813181886</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.207797166993767</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.636910225694255</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>9.748838933425947</v>
       </c>
       <c r="K19">
-        <v>11.82497580725468</v>
+        <v>14.46337990984534</v>
       </c>
       <c r="L19">
-        <v>6.45829539928174</v>
+        <v>5.549892445063507</v>
       </c>
       <c r="M19">
-        <v>10.66476281994339</v>
+        <v>13.5810416340832</v>
       </c>
       <c r="N19">
-        <v>13.01542845072187</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>16.48050142270524</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>12.26208824895737</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.34177474510226</v>
+        <v>15.49302429761858</v>
       </c>
       <c r="C20">
-        <v>7.060154102913915</v>
+        <v>10.4185614580915</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>7.932781927490902</v>
+        <v>27.64472315270857</v>
       </c>
       <c r="F20">
-        <v>36.89155697731402</v>
+        <v>43.00579397797535</v>
       </c>
       <c r="G20">
-        <v>2.101276168353526</v>
+        <v>28.42265729111751</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2.442547282284814</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.744843201996827</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>10.04028494414174</v>
       </c>
       <c r="K20">
-        <v>12.03238368829349</v>
+        <v>14.90662019297626</v>
       </c>
       <c r="L20">
-        <v>6.495749392985971</v>
+        <v>5.912241551938437</v>
       </c>
       <c r="M20">
-        <v>10.78192314872895</v>
+        <v>14.13110143975369</v>
       </c>
       <c r="N20">
-        <v>12.93732039079746</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>16.45778727561863</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>12.19166950317859</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.30104067375619</v>
+        <v>16.45464259727393</v>
       </c>
       <c r="C21">
-        <v>7.076700044217005</v>
+        <v>11.08070872655454</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>7.979605340411597</v>
+        <v>29.60357212724649</v>
       </c>
       <c r="F21">
-        <v>39.30090300329761</v>
+        <v>45.40963769386865</v>
       </c>
       <c r="G21">
-        <v>2.095877131504273</v>
+        <v>29.32206850932322</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2.796061010161173</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.944339436816443</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>10.08906634068398</v>
       </c>
       <c r="K21">
-        <v>12.70591374168386</v>
+        <v>14.92928828910038</v>
       </c>
       <c r="L21">
-        <v>6.623602207958667</v>
+        <v>6.051856481853406</v>
       </c>
       <c r="M21">
-        <v>11.1716094299403</v>
+        <v>14.97734017212389</v>
       </c>
       <c r="N21">
-        <v>12.67751449911892</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>16.40000574443998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>11.98277545532697</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.90204195016712</v>
+        <v>17.06076292985185</v>
       </c>
       <c r="C22">
-        <v>7.08827316994069</v>
+        <v>11.45793141827935</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>8.014071238018913</v>
+        <v>30.59684872397105</v>
       </c>
       <c r="F22">
-        <v>40.81974568026784</v>
+        <v>46.75188542873936</v>
       </c>
       <c r="G22">
-        <v>2.092406822170595</v>
+        <v>29.89646510868569</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>3.01064533062382</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.066606291714681</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>10.12243187216144</v>
       </c>
       <c r="K22">
-        <v>13.12877783425962</v>
+        <v>14.95331820776347</v>
       </c>
       <c r="L22">
-        <v>6.70858714452558</v>
+        <v>6.123009762032938</v>
       </c>
       <c r="M22">
-        <v>11.42300821489564</v>
+        <v>15.49736575236482</v>
       </c>
       <c r="N22">
-        <v>12.50953495606599</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>16.37681966800567</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>11.84819499452599</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.58363329681379</v>
+        <v>16.75662863257961</v>
       </c>
       <c r="C23">
-        <v>7.082025937577885</v>
+        <v>11.236709019374</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>7.995317654100312</v>
+        <v>30.05275466493057</v>
       </c>
       <c r="F23">
-        <v>40.01414225038427</v>
+        <v>46.05737906773826</v>
       </c>
       <c r="G23">
-        <v>2.094253853413745</v>
+        <v>29.64804496625485</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2.896987477197586</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.997474240576111</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>10.11522737393028</v>
       </c>
       <c r="K23">
-        <v>12.90466785401792</v>
+        <v>14.96446907882434</v>
       </c>
       <c r="L23">
-        <v>6.663103318745723</v>
+        <v>6.087358676270985</v>
       </c>
       <c r="M23">
-        <v>11.28915253024179</v>
+        <v>15.22526124542994</v>
       </c>
       <c r="N23">
-        <v>12.59903158163844</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>16.38781092747374</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>11.92104399363181</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.32565470792632</v>
+        <v>15.52202697567909</v>
       </c>
       <c r="C24">
-        <v>7.059896283445105</v>
+        <v>10.40476546013756</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>7.932080740364619</v>
+        <v>27.93795138233844</v>
       </c>
       <c r="F24">
-        <v>36.8512191057544</v>
+        <v>43.32168298173901</v>
       </c>
       <c r="G24">
-        <v>2.101365438842363</v>
+        <v>28.62922585468811</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2.457255163269247</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.738149235075392</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>10.07836524236383</v>
       </c>
       <c r="K24">
-        <v>12.02108173976234</v>
+        <v>14.97890255532873</v>
       </c>
       <c r="L24">
-        <v>6.493684835765563</v>
+        <v>5.945900814589168</v>
       </c>
       <c r="M24">
-        <v>10.77550323650761</v>
+        <v>14.1445789762971</v>
       </c>
       <c r="N24">
-        <v>12.94159948784568</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>16.45896681263807</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>12.19691344783132</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.95594353017013</v>
+        <v>14.06924748136705</v>
       </c>
       <c r="C25">
-        <v>7.039197124700176</v>
+        <v>9.447014524134346</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>7.879943868142999</v>
+        <v>25.48041746781757</v>
       </c>
       <c r="F25">
-        <v>33.19272459126714</v>
+        <v>40.21498843176711</v>
       </c>
       <c r="G25">
-        <v>2.109305259235888</v>
+        <v>27.56826450100424</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.963647750983892</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.533072057701521</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>10.0552571783384</v>
       </c>
       <c r="K25">
-        <v>10.99326042934098</v>
+        <v>15.01888110433387</v>
       </c>
       <c r="L25">
-        <v>6.317544507792869</v>
+        <v>5.786923266217705</v>
       </c>
       <c r="M25">
-        <v>10.20963021061936</v>
+        <v>12.88265609438563</v>
       </c>
       <c r="N25">
-        <v>13.31980540489233</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>16.59341868677732</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>12.49869430977036</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_5/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_5/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.94410174852052</v>
+        <v>12.67925321343927</v>
       </c>
       <c r="C2">
-        <v>8.625282018066297</v>
+        <v>8.916035265784057</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>23.46605093475319</v>
+        <v>23.88109914095524</v>
       </c>
       <c r="F2">
-        <v>37.85514348230171</v>
+        <v>37.48237083140935</v>
       </c>
       <c r="G2">
-        <v>26.97750556684862</v>
+        <v>25.19705439605955</v>
       </c>
       <c r="H2">
-        <v>1.583776599331005</v>
+        <v>1.607414262156494</v>
       </c>
       <c r="I2">
-        <v>2.733015403018701</v>
+        <v>2.626889024878611</v>
       </c>
       <c r="J2">
-        <v>10.07853618044668</v>
+        <v>10.12745539361615</v>
       </c>
       <c r="K2">
-        <v>15.12731264773262</v>
+        <v>14.45931196921646</v>
       </c>
       <c r="L2">
-        <v>5.669874195811247</v>
+        <v>12.26537460968596</v>
       </c>
       <c r="M2">
-        <v>11.88005852308004</v>
+        <v>9.138330429547969</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>5.616343553289011</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>11.84220831423191</v>
       </c>
       <c r="P2">
-        <v>12.7295168174123</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>12.59346253217778</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.08789573029418</v>
+        <v>11.88379598542926</v>
       </c>
       <c r="C3">
-        <v>8.068727487080025</v>
+        <v>8.286535106406806</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>22.03484460863586</v>
+        <v>22.40926297591298</v>
       </c>
       <c r="F3">
-        <v>36.15495844382659</v>
+        <v>35.83306844479113</v>
       </c>
       <c r="G3">
-        <v>26.51002514241123</v>
+        <v>24.89361221247896</v>
       </c>
       <c r="H3">
-        <v>1.813292063508963</v>
+        <v>1.782088298566109</v>
       </c>
       <c r="I3">
-        <v>2.89316938763338</v>
+        <v>2.765665621574177</v>
       </c>
       <c r="J3">
-        <v>10.08607438211393</v>
+        <v>10.11583297620232</v>
       </c>
       <c r="K3">
-        <v>15.17663238079211</v>
+        <v>14.54637858418662</v>
       </c>
       <c r="L3">
-        <v>5.583588627644715</v>
+        <v>12.41183761015926</v>
       </c>
       <c r="M3">
-        <v>11.14296185897699</v>
+        <v>9.141574358324805</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>5.534116601548607</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>11.1225460889122</v>
       </c>
       <c r="P3">
-        <v>12.88684319762475</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>12.73690883163472</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.5280072392874</v>
+        <v>11.36361430073679</v>
       </c>
       <c r="C4">
-        <v>7.711573242453674</v>
+        <v>7.881502550351208</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>21.11090163908883</v>
+        <v>21.45952120244532</v>
       </c>
       <c r="F4">
-        <v>35.07714869829142</v>
+        <v>34.78723284844664</v>
       </c>
       <c r="G4">
-        <v>26.23052265743085</v>
+        <v>24.71703064253559</v>
       </c>
       <c r="H4">
-        <v>1.989170307470656</v>
+        <v>1.953587292336675</v>
       </c>
       <c r="I4">
-        <v>2.995672631384968</v>
+        <v>2.85487585659167</v>
       </c>
       <c r="J4">
-        <v>10.09365973338666</v>
+        <v>10.1094213188847</v>
       </c>
       <c r="K4">
-        <v>15.21068765672576</v>
+        <v>14.60210007098631</v>
       </c>
       <c r="L4">
-        <v>5.52863069721583</v>
+        <v>12.50279088190901</v>
       </c>
       <c r="M4">
-        <v>10.66445542383489</v>
+        <v>9.162276492124665</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>5.481628930254813</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>10.65538131241214</v>
       </c>
       <c r="P4">
-        <v>12.98494753306042</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>12.82678379603603</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.2851866550388</v>
+        <v>11.13784360542737</v>
       </c>
       <c r="C5">
-        <v>7.569735740004346</v>
+        <v>7.719416220829785</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>20.72942583376391</v>
+        <v>21.06714168294741</v>
       </c>
       <c r="F5">
-        <v>34.62379223706277</v>
+        <v>34.34725802454373</v>
       </c>
       <c r="G5">
-        <v>26.10152151253018</v>
+        <v>24.63101247353253</v>
       </c>
       <c r="H5">
-        <v>2.062558818765321</v>
+        <v>2.025154564342966</v>
       </c>
       <c r="I5">
-        <v>3.041442947246869</v>
+        <v>2.895688149723376</v>
       </c>
       <c r="J5">
-        <v>10.09458519385552</v>
+        <v>10.10418753305725</v>
       </c>
       <c r="K5">
-        <v>15.21914345234356</v>
+        <v>14.61944242311095</v>
       </c>
       <c r="L5">
-        <v>5.505099329284608</v>
+        <v>12.53461955585301</v>
       </c>
       <c r="M5">
-        <v>10.46177216805573</v>
+        <v>9.172005432590957</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>5.459130566144591</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>10.45753769181427</v>
       </c>
       <c r="P5">
-        <v>13.02474019001128</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>12.86346628538387</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.23697326521559</v>
+        <v>11.09280264684851</v>
       </c>
       <c r="C6">
-        <v>7.555231164949913</v>
+        <v>7.701556921238783</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>20.67312184780758</v>
+        <v>21.00876647970477</v>
       </c>
       <c r="F6">
-        <v>34.54058279549903</v>
+        <v>34.26651766912131</v>
       </c>
       <c r="G6">
-        <v>26.05940374572068</v>
+        <v>24.59679751578646</v>
       </c>
       <c r="H6">
-        <v>2.075033010813476</v>
+        <v>2.037310333635551</v>
       </c>
       <c r="I6">
-        <v>3.052888851808901</v>
+        <v>2.906974066386818</v>
       </c>
       <c r="J6">
-        <v>10.09125607798742</v>
+        <v>10.09991182805969</v>
       </c>
       <c r="K6">
-        <v>15.21286452154346</v>
+        <v>14.61514105974958</v>
       </c>
       <c r="L6">
-        <v>5.500386572293362</v>
+        <v>12.53321452576098</v>
       </c>
       <c r="M6">
-        <v>10.42627637132695</v>
+        <v>9.169786212287542</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>5.454628942448473</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>10.42291591607256</v>
       </c>
       <c r="P6">
-        <v>13.03067333418636</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>12.86910286065602</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.50512022527636</v>
+        <v>11.33712083644753</v>
       </c>
       <c r="C7">
-        <v>7.734424064978065</v>
+        <v>7.892291118714817</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>21.1263941071619</v>
+        <v>21.48712841711373</v>
       </c>
       <c r="F7">
-        <v>35.05103036534927</v>
+        <v>34.74928577658718</v>
       </c>
       <c r="G7">
-        <v>26.17225932134453</v>
+        <v>24.7269827761292</v>
       </c>
       <c r="H7">
-        <v>1.990673561572962</v>
+        <v>1.955408248800548</v>
       </c>
       <c r="I7">
-        <v>3.006309918874477</v>
+        <v>2.86785370560001</v>
       </c>
       <c r="J7">
-        <v>10.08405764108072</v>
+        <v>10.06132051177508</v>
       </c>
       <c r="K7">
-        <v>15.18967563897925</v>
+        <v>14.5741414542163</v>
       </c>
       <c r="L7">
-        <v>5.526217277850913</v>
+        <v>12.47756982572788</v>
       </c>
       <c r="M7">
-        <v>10.65787743814639</v>
+        <v>9.145551733066929</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>5.47807476597554</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>10.64227425719834</v>
       </c>
       <c r="P7">
-        <v>12.9836427252595</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>12.82553439150586</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.63196383848115</v>
+        <v>12.37430367207948</v>
       </c>
       <c r="C8">
-        <v>8.466816310834787</v>
+        <v>8.696679402035048</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>23.00719840756723</v>
+        <v>23.44743777513227</v>
       </c>
       <c r="F8">
-        <v>37.25119948509381</v>
+        <v>36.85692976691159</v>
       </c>
       <c r="G8">
-        <v>26.74168658425861</v>
+        <v>25.23571569532009</v>
       </c>
       <c r="H8">
-        <v>1.631522880761032</v>
+        <v>1.606039080270951</v>
       </c>
       <c r="I8">
-        <v>2.80029757135078</v>
+        <v>2.691106048773826</v>
       </c>
       <c r="J8">
-        <v>10.06787324227835</v>
+        <v>9.984846019698308</v>
       </c>
       <c r="K8">
-        <v>15.11564733023979</v>
+        <v>14.43516657763322</v>
       </c>
       <c r="L8">
-        <v>5.63783608434405</v>
+        <v>12.27045851799542</v>
       </c>
       <c r="M8">
-        <v>11.62653034000045</v>
+        <v>9.098756802743207</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>5.58179643873427</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>11.57393732327805</v>
       </c>
       <c r="P8">
-        <v>12.78133259165647</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>12.64020707588009</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.60362592207533</v>
+        <v>14.20438823822327</v>
       </c>
       <c r="C9">
-        <v>9.741667125256427</v>
+        <v>10.13215305378504</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>26.30165605651128</v>
+        <v>26.84351338421715</v>
       </c>
       <c r="F9">
-        <v>41.31239877224656</v>
+        <v>40.7890934646798</v>
       </c>
       <c r="G9">
-        <v>28.01507321631338</v>
+        <v>26.16561537545141</v>
       </c>
       <c r="H9">
-        <v>2.133404459940478</v>
+        <v>2.141473585783882</v>
       </c>
       <c r="I9">
-        <v>2.543182357453656</v>
+        <v>2.607540657541102</v>
       </c>
       <c r="J9">
-        <v>10.07785451123481</v>
+        <v>9.995474537228473</v>
       </c>
       <c r="K9">
-        <v>15.03989274698639</v>
+        <v>14.24740449395428</v>
       </c>
       <c r="L9">
-        <v>5.844838254177816</v>
+        <v>11.92886844113326</v>
       </c>
       <c r="M9">
-        <v>13.32643048719648</v>
+        <v>9.200088599609028</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>5.777579245691459</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>13.23054216223041</v>
       </c>
       <c r="P9">
-        <v>12.39864082233907</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>12.29403005200341</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.86076924325808</v>
+        <v>15.35216144657245</v>
       </c>
       <c r="C10">
-        <v>10.5752510167201</v>
+        <v>11.01126745277715</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>28.06791179082143</v>
+        <v>28.73162391097498</v>
       </c>
       <c r="F10">
-        <v>43.68798986724035</v>
+        <v>43.02078933942925</v>
       </c>
       <c r="G10">
-        <v>28.79818555473874</v>
+        <v>27.09134387292008</v>
       </c>
       <c r="H10">
-        <v>2.555236096082343</v>
+        <v>2.54986182617681</v>
       </c>
       <c r="I10">
-        <v>2.801017306204166</v>
+        <v>2.829769091208993</v>
       </c>
       <c r="J10">
-        <v>10.06964979428927</v>
+        <v>9.768843540626088</v>
       </c>
       <c r="K10">
-        <v>14.95171501502375</v>
+        <v>14.03041689257725</v>
       </c>
       <c r="L10">
-        <v>5.945939291157741</v>
+        <v>11.61774771358169</v>
       </c>
       <c r="M10">
-        <v>14.42116084272365</v>
+        <v>9.286887315156433</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>5.866925443819902</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>14.26667897037765</v>
       </c>
       <c r="P10">
-        <v>12.12297294194186</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>12.050792125627</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.18710615011149</v>
+        <v>15.63445341347388</v>
       </c>
       <c r="C11">
-        <v>10.6324651542178</v>
+        <v>10.94873933469509</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>25.08897543347926</v>
+        <v>25.86334574059583</v>
       </c>
       <c r="F11">
-        <v>41.21191441557207</v>
+        <v>40.42552323653698</v>
       </c>
       <c r="G11">
-        <v>27.68902218877998</v>
+        <v>26.79652307496947</v>
       </c>
       <c r="H11">
-        <v>3.251106281965471</v>
+        <v>3.242175202748766</v>
       </c>
       <c r="I11">
-        <v>2.880597456121926</v>
+        <v>2.896411214710711</v>
       </c>
       <c r="J11">
-        <v>9.814233693875458</v>
+        <v>9.143023456823249</v>
       </c>
       <c r="K11">
-        <v>14.50119531588038</v>
+        <v>13.52360800472458</v>
       </c>
       <c r="L11">
-        <v>5.700623283728945</v>
+        <v>11.202327556937</v>
       </c>
       <c r="M11">
-        <v>14.65319232423536</v>
+        <v>8.981735545056791</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>5.638970608837815</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>14.43043919335183</v>
       </c>
       <c r="P11">
-        <v>12.00749881017334</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>11.98146715665141</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.23044602455168</v>
+        <v>15.67461726697132</v>
       </c>
       <c r="C12">
-        <v>10.48146811769733</v>
+        <v>10.71899949849536</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>22.16938596716803</v>
+        <v>22.9749989154523</v>
       </c>
       <c r="F12">
-        <v>38.62507382201656</v>
+        <v>37.80495300805636</v>
       </c>
       <c r="G12">
-        <v>26.64557398083469</v>
+        <v>26.18165308087153</v>
       </c>
       <c r="H12">
-        <v>4.377139620785541</v>
+        <v>4.369885952584349</v>
       </c>
       <c r="I12">
-        <v>2.891504143396519</v>
+        <v>2.903306773527102</v>
       </c>
       <c r="J12">
-        <v>9.610955214657919</v>
+        <v>8.826869069043182</v>
       </c>
       <c r="K12">
-        <v>14.16923183740727</v>
+        <v>13.20299432693874</v>
       </c>
       <c r="L12">
-        <v>5.571252309780255</v>
+        <v>10.96711678137967</v>
       </c>
       <c r="M12">
-        <v>14.63083191032402</v>
+        <v>8.746035360835567</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>5.536400272772914</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>14.38056943386345</v>
       </c>
       <c r="P12">
-        <v>11.97844096267531</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>11.98425198027596</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.03792886400773</v>
+        <v>15.5199733417951</v>
       </c>
       <c r="C13">
-        <v>10.18537341999284</v>
+        <v>10.38995808541887</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>19.05997350823673</v>
+        <v>19.81290544716448</v>
       </c>
       <c r="F13">
-        <v>35.7099757637644</v>
+        <v>34.94506398486892</v>
       </c>
       <c r="G13">
-        <v>25.49396240162751</v>
+        <v>25.03050830725603</v>
       </c>
       <c r="H13">
-        <v>5.620502502063527</v>
+        <v>5.616133153720697</v>
       </c>
       <c r="I13">
-        <v>2.855185078225436</v>
+        <v>2.872245702015224</v>
       </c>
       <c r="J13">
-        <v>9.420668563393015</v>
+        <v>8.744885673590014</v>
       </c>
       <c r="K13">
-        <v>13.87643568559036</v>
+        <v>12.99227279026487</v>
       </c>
       <c r="L13">
-        <v>5.523712969272236</v>
+        <v>10.83403936586864</v>
       </c>
       <c r="M13">
-        <v>14.40674087396493</v>
+        <v>8.544097495293819</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.518091601133865</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>14.17121960961478</v>
       </c>
       <c r="P13">
-        <v>12.00973182313899</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>12.03172053966727</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.78954165101248</v>
+        <v>15.3170301159148</v>
       </c>
       <c r="C14">
-        <v>9.914549649912146</v>
+        <v>10.11500981899912</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>16.76906163560047</v>
+        <v>17.44749204440358</v>
       </c>
       <c r="F14">
-        <v>33.48992378629953</v>
+        <v>32.80300738568967</v>
       </c>
       <c r="G14">
-        <v>24.62139699053408</v>
+        <v>23.97651295888026</v>
       </c>
       <c r="H14">
-        <v>6.531793086420473</v>
+        <v>6.529344293029234</v>
       </c>
       <c r="I14">
-        <v>2.809810317255152</v>
+        <v>2.8350539143273</v>
       </c>
       <c r="J14">
-        <v>9.291740866415219</v>
+        <v>8.775529219832311</v>
       </c>
       <c r="K14">
-        <v>13.68594338078305</v>
+        <v>12.88735064109945</v>
       </c>
       <c r="L14">
-        <v>5.541126140915741</v>
+        <v>10.77874122467752</v>
       </c>
       <c r="M14">
-        <v>14.15509518973997</v>
+        <v>8.415317925303427</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.55271596137638</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>13.9486946594155</v>
       </c>
       <c r="P14">
-        <v>12.05895280418272</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>12.08314260612344</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.67152190477429</v>
+        <v>15.21861666031947</v>
       </c>
       <c r="C15">
-        <v>9.823567236666507</v>
+        <v>10.03097706344907</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>16.16933658172843</v>
+        <v>16.81414087451126</v>
       </c>
       <c r="F15">
-        <v>32.87083556830991</v>
+        <v>32.2198126343242</v>
       </c>
       <c r="G15">
-        <v>24.36930839642099</v>
+        <v>23.60522783464184</v>
       </c>
       <c r="H15">
-        <v>6.739175289264653</v>
+        <v>6.737372200492777</v>
       </c>
       <c r="I15">
-        <v>2.789995113607189</v>
+        <v>2.819736949371458</v>
       </c>
       <c r="J15">
-        <v>9.260634416358995</v>
+        <v>8.819867048399701</v>
       </c>
       <c r="K15">
-        <v>13.64174383743121</v>
+        <v>12.87642343129875</v>
       </c>
       <c r="L15">
-        <v>5.549301596769065</v>
+        <v>10.77904039306822</v>
       </c>
       <c r="M15">
-        <v>14.04836643670119</v>
+        <v>8.3858702221927</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.563713374591097</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>13.85728473026526</v>
       </c>
       <c r="P15">
-        <v>12.08273323913231</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>12.10383918772106</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.17384951907036</v>
+        <v>14.79335251625815</v>
       </c>
       <c r="C16">
-        <v>9.530393614088171</v>
+        <v>9.80156330195847</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>15.83563448236096</v>
+        <v>16.35471136940129</v>
       </c>
       <c r="F16">
-        <v>32.29170306538025</v>
+        <v>31.78087207361247</v>
       </c>
       <c r="G16">
-        <v>24.2001779557805</v>
+        <v>22.8319439977741</v>
       </c>
       <c r="H16">
-        <v>6.461410088252117</v>
+        <v>6.461965503753642</v>
       </c>
       <c r="I16">
-        <v>2.690959914887658</v>
+        <v>2.739642735654927</v>
       </c>
       <c r="J16">
-        <v>9.296639131551009</v>
+        <v>9.171830041506242</v>
       </c>
       <c r="K16">
-        <v>13.72788686782398</v>
+        <v>13.06094984933256</v>
       </c>
       <c r="L16">
-        <v>5.510724647426451</v>
+        <v>10.94361311762629</v>
       </c>
       <c r="M16">
-        <v>13.62805358213546</v>
+        <v>8.445396724912984</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.517134043069648</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>13.50605270648847</v>
       </c>
       <c r="P16">
-        <v>12.18645253584437</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>12.17579011778859</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.92143686718229</v>
+        <v>14.56648744949033</v>
       </c>
       <c r="C17">
-        <v>9.453356471502195</v>
+        <v>9.763185547284023</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>16.85253586670915</v>
+        <v>17.32800847971132</v>
       </c>
       <c r="F17">
-        <v>33.066321466595</v>
+        <v>32.60666040543747</v>
       </c>
       <c r="G17">
-        <v>24.54237804565691</v>
+        <v>22.90009310757165</v>
       </c>
       <c r="H17">
-        <v>5.711664147790454</v>
+        <v>5.713474440632382</v>
       </c>
       <c r="I17">
-        <v>2.639007322037728</v>
+        <v>2.6972931464162</v>
       </c>
       <c r="J17">
-        <v>9.392627451316093</v>
+        <v>9.399099577350773</v>
       </c>
       <c r="K17">
-        <v>13.89374802745066</v>
+        <v>13.24960989997726</v>
       </c>
       <c r="L17">
-        <v>5.462772428186629</v>
+        <v>11.10055294752673</v>
       </c>
       <c r="M17">
-        <v>13.43886397252552</v>
+        <v>8.548464722923431</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.458577042591521</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>13.34629223806751</v>
       </c>
       <c r="P17">
-        <v>12.24090951658413</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>12.20985899263172</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.87320838323652</v>
+        <v>14.51264608256238</v>
       </c>
       <c r="C18">
-        <v>9.542589720667669</v>
+        <v>9.892586482497205</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>19.16233576744084</v>
+        <v>19.63798982502182</v>
       </c>
       <c r="F18">
-        <v>35.11542728415961</v>
+        <v>34.65761458884861</v>
       </c>
       <c r="G18">
-        <v>25.39783286810277</v>
+        <v>23.58570704638623</v>
       </c>
       <c r="H18">
-        <v>4.51174788532476</v>
+        <v>4.514524571581966</v>
       </c>
       <c r="I18">
-        <v>2.618761372958738</v>
+        <v>2.679122698116598</v>
       </c>
       <c r="J18">
-        <v>9.557108200767125</v>
+        <v>9.604979880006047</v>
       </c>
       <c r="K18">
-        <v>14.16274175931877</v>
+        <v>13.49479411771023</v>
       </c>
       <c r="L18">
-        <v>5.453061928997265</v>
+        <v>11.29181726835586</v>
       </c>
       <c r="M18">
-        <v>13.4368231535615</v>
+        <v>8.721300177695177</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.433904601876387</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>13.35340563651183</v>
       </c>
       <c r="P18">
-        <v>12.26259664159032</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>12.21423118450984</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.96539146644004</v>
+        <v>14.57907667762844</v>
       </c>
       <c r="C19">
-        <v>9.79596442478649</v>
+        <v>10.19167945196693</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>22.35486146810661</v>
+        <v>22.8556276085936</v>
       </c>
       <c r="F19">
-        <v>37.99059767491816</v>
+        <v>37.50543522606271</v>
       </c>
       <c r="G19">
-        <v>26.50348813181886</v>
+        <v>24.56379167184631</v>
       </c>
       <c r="H19">
-        <v>3.207797166993767</v>
+        <v>3.21140671610373</v>
       </c>
       <c r="I19">
-        <v>2.636910225694255</v>
+        <v>2.695870685571081</v>
       </c>
       <c r="J19">
-        <v>9.748838933425947</v>
+        <v>9.789999126779797</v>
       </c>
       <c r="K19">
-        <v>14.46337990984534</v>
+        <v>13.74537760376852</v>
       </c>
       <c r="L19">
-        <v>5.549892445063507</v>
+        <v>11.4808249297761</v>
       </c>
       <c r="M19">
-        <v>13.5810416340832</v>
+        <v>8.917147944949605</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>5.511952129977642</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>13.49474433277395</v>
       </c>
       <c r="P19">
-        <v>12.26208824895737</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>12.19887231110411</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.49302429761858</v>
+        <v>15.02716810264341</v>
       </c>
       <c r="C20">
-        <v>10.4185614580915</v>
+        <v>10.87512721113054</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>27.64472315270857</v>
+        <v>28.23958082103819</v>
       </c>
       <c r="F20">
-        <v>43.00579397797535</v>
+        <v>42.41473732933208</v>
       </c>
       <c r="G20">
-        <v>28.42265729111751</v>
+        <v>26.45985321443138</v>
       </c>
       <c r="H20">
-        <v>2.442547282284814</v>
+        <v>2.441867246228647</v>
       </c>
       <c r="I20">
-        <v>2.744843201996827</v>
+        <v>2.788290657426469</v>
       </c>
       <c r="J20">
-        <v>10.04028494414174</v>
+        <v>9.930540325225543</v>
       </c>
       <c r="K20">
-        <v>14.90662019297626</v>
+        <v>14.05623463610503</v>
       </c>
       <c r="L20">
-        <v>5.912241551938437</v>
+        <v>11.67707157757071</v>
       </c>
       <c r="M20">
-        <v>14.13110143975369</v>
+        <v>9.233598431158899</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>5.840759398955363</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>14.0110049111946</v>
       </c>
       <c r="P20">
-        <v>12.19166950317859</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>12.11360360136639</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.45464259727393</v>
+        <v>15.83619104685876</v>
       </c>
       <c r="C21">
-        <v>11.08070872655454</v>
+        <v>11.41386945791698</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>29.60357212724649</v>
+        <v>30.47924454452878</v>
       </c>
       <c r="F21">
-        <v>45.40963769386865</v>
+        <v>44.51273432061959</v>
       </c>
       <c r="G21">
-        <v>29.32206850932322</v>
+        <v>28.62983401561192</v>
       </c>
       <c r="H21">
-        <v>2.796061010161173</v>
+        <v>2.779507216167528</v>
       </c>
       <c r="I21">
-        <v>2.944339436816443</v>
+        <v>2.950775539040256</v>
       </c>
       <c r="J21">
-        <v>10.08906634068398</v>
+        <v>9.165679592545937</v>
       </c>
       <c r="K21">
-        <v>14.92928828910038</v>
+        <v>13.80733941332906</v>
       </c>
       <c r="L21">
-        <v>6.051856481853406</v>
+        <v>11.38970961199643</v>
       </c>
       <c r="M21">
-        <v>14.97734017212389</v>
+        <v>9.245893487405162</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>5.945526864549328</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>14.71602302289487</v>
       </c>
       <c r="P21">
-        <v>11.98277545532697</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>11.93024062099647</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.06076292985185</v>
+        <v>16.34389880483591</v>
       </c>
       <c r="C22">
-        <v>11.45793141827935</v>
+        <v>11.70120140523688</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>30.59684872397105</v>
+        <v>31.65982637568142</v>
       </c>
       <c r="F22">
-        <v>46.75188542873936</v>
+        <v>45.65002273326038</v>
       </c>
       <c r="G22">
-        <v>29.89646510868569</v>
+        <v>30.13987590934364</v>
       </c>
       <c r="H22">
-        <v>3.01064533062382</v>
+        <v>2.983937809284295</v>
       </c>
       <c r="I22">
-        <v>3.066606291714681</v>
+        <v>3.048148591570575</v>
       </c>
       <c r="J22">
-        <v>10.12243187216144</v>
+        <v>8.681709078096683</v>
       </c>
       <c r="K22">
-        <v>14.95331820776347</v>
+        <v>13.63941116359973</v>
       </c>
       <c r="L22">
-        <v>6.123009762032938</v>
+        <v>11.20309571724265</v>
       </c>
       <c r="M22">
-        <v>15.49736575236482</v>
+        <v>9.258154850878793</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>5.99363774496269</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>15.14152931178722</v>
       </c>
       <c r="P22">
-        <v>11.84819499452599</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>11.81598517593587</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.75662863257961</v>
+        <v>16.10019122912266</v>
       </c>
       <c r="C23">
-        <v>11.236709019374</v>
+        <v>11.55018218309303</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>30.05275466493057</v>
+        <v>30.99156794311024</v>
       </c>
       <c r="F23">
-        <v>46.05737906773826</v>
+        <v>45.08996728198264</v>
       </c>
       <c r="G23">
-        <v>29.64804496625485</v>
+        <v>29.22357326648768</v>
       </c>
       <c r="H23">
-        <v>2.896987477197586</v>
+        <v>2.876258242316633</v>
       </c>
       <c r="I23">
-        <v>2.997474240576111</v>
+        <v>2.991823546247292</v>
       </c>
       <c r="J23">
-        <v>10.11522737393028</v>
+        <v>9.018640874965669</v>
       </c>
       <c r="K23">
-        <v>14.96446907882434</v>
+        <v>13.77189705749262</v>
       </c>
       <c r="L23">
-        <v>6.087358676270985</v>
+        <v>11.3298395413242</v>
       </c>
       <c r="M23">
-        <v>15.22526124542994</v>
+        <v>9.288917075241086</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>5.973026642356468</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>14.93251901693561</v>
       </c>
       <c r="P23">
-        <v>11.92104399363181</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>11.87522736076733</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.52202697567909</v>
+        <v>15.05352730111673</v>
       </c>
       <c r="C24">
-        <v>10.40476546013756</v>
+        <v>10.86670082870807</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>27.93795138233844</v>
+        <v>28.53431086199172</v>
       </c>
       <c r="F24">
-        <v>43.32168298173901</v>
+        <v>42.72882393929412</v>
       </c>
       <c r="G24">
-        <v>28.62922585468811</v>
+        <v>26.64254681925173</v>
       </c>
       <c r="H24">
-        <v>2.457255163269247</v>
+        <v>2.456487632468467</v>
       </c>
       <c r="I24">
-        <v>2.738149235075392</v>
+        <v>2.779287667576678</v>
       </c>
       <c r="J24">
-        <v>10.07836524236383</v>
+        <v>9.971152136138754</v>
       </c>
       <c r="K24">
-        <v>14.97890255532873</v>
+        <v>14.12072398413</v>
       </c>
       <c r="L24">
-        <v>5.945900814589168</v>
+        <v>11.72494510500938</v>
       </c>
       <c r="M24">
-        <v>14.1445789762971</v>
+        <v>9.284156036283782</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>5.872295838822133</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>14.02485488115525</v>
       </c>
       <c r="P24">
-        <v>12.19691344783132</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>12.11480488515905</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.06924748136705</v>
+        <v>13.71310552544566</v>
       </c>
       <c r="C25">
-        <v>9.447014524134346</v>
+        <v>9.810714292120633</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>25.48041746781757</v>
+        <v>25.97922256675423</v>
       </c>
       <c r="F25">
-        <v>40.21498843176711</v>
+        <v>39.74260152282795</v>
       </c>
       <c r="G25">
-        <v>27.56826450100424</v>
+        <v>25.72146593812891</v>
       </c>
       <c r="H25">
-        <v>1.963647750983892</v>
+        <v>1.976735056879856</v>
       </c>
       <c r="I25">
-        <v>2.533072057701521</v>
+        <v>2.531179815865181</v>
       </c>
       <c r="J25">
-        <v>10.0552571783384</v>
+        <v>10.02952217803497</v>
       </c>
       <c r="K25">
-        <v>15.01888110433387</v>
+        <v>14.27355587060141</v>
       </c>
       <c r="L25">
-        <v>5.786923266217705</v>
+        <v>12.00349916115005</v>
       </c>
       <c r="M25">
-        <v>12.88265609438563</v>
+        <v>9.138963759223026</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>5.724626073136466</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>12.80642514271866</v>
       </c>
       <c r="P25">
-        <v>12.49869430977036</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>12.38566724570525</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
